--- a/data_to_use/preprocessed_data/without_negations/depression_without_negations.xlsx
+++ b/data_to_use/preprocessed_data/without_negations/depression_without_negations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Thesis_AnaPao\data_to_use\preprocessed_data\without_negations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D724E18-B884-41AF-900F-FC7F7AB7BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B27481-FA32-4AEF-8B4B-4B2DDB934000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">depression_without_negations!$A$1:$I$1001</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -7386,11 +7385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H206" sqref="A206:H206"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7422,7 +7420,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -7448,7 +7446,7 @@
         <v>0.50397223199999996</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -7503,7 +7501,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -7532,7 +7530,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -7558,7 +7556,7 @@
         <v>0.88444793200000005</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -7584,7 +7582,7 @@
         <v>0.70917451399999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -7610,7 +7608,7 @@
         <v>0.91361272299999996</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -7636,7 +7634,7 @@
         <v>0.88610237800000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -7662,7 +7660,7 @@
         <v>0.55981230699999995</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -7691,7 +7689,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -7726,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -7758,7 +7756,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -7784,7 +7782,7 @@
         <v>0.84097504599999995</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -7816,7 +7814,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -7848,7 +7846,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -7874,7 +7872,7 @@
         <v>0.71472263300000005</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -7903,7 +7901,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -7929,7 +7927,7 @@
         <v>0.63727182100000002</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -7958,7 +7956,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -7984,7 +7982,7 @@
         <v>0.86462026800000003</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -8010,7 +8008,7 @@
         <v>0.64482319399999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -8036,7 +8034,7 @@
         <v>0.76255214199999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -8062,7 +8060,7 @@
         <v>0.73536950300000004</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8088,7 +8086,7 @@
         <v>0.79082644000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -8117,7 +8115,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -8143,7 +8141,7 @@
         <v>0.90914440200000002</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -8169,7 +8167,7 @@
         <v>0.94142281999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -8201,7 +8199,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -8227,7 +8225,7 @@
         <v>0.91948550900000003</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -8253,7 +8251,7 @@
         <v>0.60741460300000005</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -8279,7 +8277,7 @@
         <v>0.899785697</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -8305,7 +8303,7 @@
         <v>0.621708751</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
@@ -8331,7 +8329,7 @@
         <v>0.91948550900000003</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>81</v>
       </c>
@@ -8357,7 +8355,7 @@
         <v>0.90439957400000004</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>83</v>
       </c>
@@ -8383,7 +8381,7 @@
         <v>0.91948550900000003</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -8409,7 +8407,7 @@
         <v>0.91948550900000003</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -8435,7 +8433,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -8461,7 +8459,7 @@
         <v>0.93208259299999996</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -8487,7 +8485,7 @@
         <v>0.93454122500000003</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -8513,7 +8511,7 @@
         <v>0.62096035500000002</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
@@ -8539,7 +8537,7 @@
         <v>0.93105238700000004</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -8574,7 +8572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -8600,7 +8598,7 @@
         <v>0.60892772699999997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -8626,7 +8624,7 @@
         <v>0.79202789100000004</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -8652,7 +8650,7 @@
         <v>0.73015928299999999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -8678,7 +8676,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -8704,7 +8702,7 @@
         <v>0.55826461299999997</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -8730,7 +8728,7 @@
         <v>0.53409087700000002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -8759,7 +8757,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -8785,7 +8783,7 @@
         <v>0.75462210200000002</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>110</v>
       </c>
@@ -8814,7 +8812,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -8843,7 +8841,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -8869,7 +8867,7 @@
         <v>0.78992462200000002</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -8895,7 +8893,7 @@
         <v>0.69772476000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -8921,7 +8919,7 @@
         <v>0.76515996500000005</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -8947,7 +8945,7 @@
         <v>0.83329898099999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -8976,7 +8974,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>124</v>
       </c>
@@ -9002,7 +9000,7 @@
         <v>0.75720512900000003</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -9028,7 +9026,7 @@
         <v>0.86252808599999997</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -9054,7 +9052,7 @@
         <v>0.67641741</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -9080,7 +9078,7 @@
         <v>0.60305410599999998</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>132</v>
       </c>
@@ -9106,7 +9104,7 @@
         <v>0.82224941299999998</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -9161,7 +9159,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -9187,7 +9185,7 @@
         <v>0.83104842899999998</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -9213,7 +9211,7 @@
         <v>0.55336076000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -9239,7 +9237,7 @@
         <v>0.76068216600000005</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -9265,7 +9263,7 @@
         <v>0.57404148600000005</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -9291,7 +9289,7 @@
         <v>0.60088056300000003</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -9317,7 +9315,7 @@
         <v>0.59467077300000004</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>150</v>
       </c>
@@ -9343,7 +9341,7 @@
         <v>0.58880096699999995</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>152</v>
       </c>
@@ -9369,7 +9367,7 @@
         <v>0.56107711800000004</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -9395,7 +9393,7 @@
         <v>0.83699256200000005</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -9421,7 +9419,7 @@
         <v>0.92159485799999996</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>158</v>
       </c>
@@ -9447,7 +9445,7 @@
         <v>0.87894898700000001</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -9473,7 +9471,7 @@
         <v>0.63169264800000002</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>162</v>
       </c>
@@ -9499,7 +9497,7 @@
         <v>0.79851156499999998</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>164</v>
       </c>
@@ -9525,7 +9523,7 @@
         <v>0.917304754</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -9551,7 +9549,7 @@
         <v>0.55148315400000003</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -9577,7 +9575,7 @@
         <v>0.79950815399999997</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>170</v>
       </c>
@@ -9603,7 +9601,7 @@
         <v>0.88234007400000003</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>172</v>
       </c>
@@ -9629,7 +9627,7 @@
         <v>0.67329967000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>174</v>
       </c>
@@ -9658,7 +9656,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>176</v>
       </c>
@@ -9684,7 +9682,7 @@
         <v>0.91084975000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>178</v>
       </c>
@@ -9710,7 +9708,7 @@
         <v>0.50696730599999995</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>180</v>
       </c>
@@ -9736,7 +9734,7 @@
         <v>0.70538026099999995</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -9762,7 +9760,7 @@
         <v>0.843016922</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -9788,7 +9786,7 @@
         <v>0.92367363000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>186</v>
       </c>
@@ -9814,7 +9812,7 @@
         <v>0.51623702000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>188</v>
       </c>
@@ -9840,7 +9838,7 @@
         <v>0.71688252699999999</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -9866,7 +9864,7 @@
         <v>0.57366007600000002</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>192</v>
       </c>
@@ -9892,7 +9890,7 @@
         <v>0.53001731600000002</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>194</v>
       </c>
@@ -9918,7 +9916,7 @@
         <v>0.92008310599999998</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>196</v>
       </c>
@@ -9944,7 +9942,7 @@
         <v>0.53844618799999999</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>198</v>
       </c>
@@ -9970,7 +9968,7 @@
         <v>0.72749364400000005</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -10025,7 +10023,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -10051,7 +10049,7 @@
         <v>0.80329924799999997</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -10077,7 +10075,7 @@
         <v>0.77926421199999996</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>208</v>
       </c>
@@ -10103,7 +10101,7 @@
         <v>0.62213009600000002</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>210</v>
       </c>
@@ -10129,7 +10127,7 @@
         <v>0.63661897199999995</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>212</v>
       </c>
@@ -10155,7 +10153,7 @@
         <v>0.71760678300000003</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>214</v>
       </c>
@@ -10181,7 +10179,7 @@
         <v>0.68998599100000002</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>216</v>
       </c>
@@ -10207,7 +10205,7 @@
         <v>0.897045553</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>218</v>
       </c>
@@ -10233,7 +10231,7 @@
         <v>0.682713389</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>220</v>
       </c>
@@ -10259,7 +10257,7 @@
         <v>0.86390173400000003</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>222</v>
       </c>
@@ -10285,7 +10283,7 @@
         <v>0.60433173200000001</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -10311,7 +10309,7 @@
         <v>0.54911708800000003</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="405" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>226</v>
       </c>
@@ -10337,7 +10335,7 @@
         <v>0.70037424599999998</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>228</v>
       </c>
@@ -10363,7 +10361,7 @@
         <v>0.552236795</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>230</v>
       </c>
@@ -10389,7 +10387,7 @@
         <v>0.50789362199999999</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -10415,7 +10413,7 @@
         <v>0.565734446</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>234</v>
       </c>
@@ -10441,7 +10439,7 @@
         <v>0.86353969600000002</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>236</v>
       </c>
@@ -10467,7 +10465,7 @@
         <v>0.54524451500000004</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -10493,7 +10491,7 @@
         <v>0.61743545499999997</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -10551,7 +10549,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -10577,7 +10575,7 @@
         <v>0.72662073400000005</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>246</v>
       </c>
@@ -10603,7 +10601,7 @@
         <v>0.87791258100000003</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>248</v>
       </c>
@@ -10629,7 +10627,7 @@
         <v>0.75667166699999999</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>250</v>
       </c>
@@ -10655,7 +10653,7 @@
         <v>0.82182675599999999</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>252</v>
       </c>
@@ -10681,7 +10679,7 @@
         <v>0.77218455100000005</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>254</v>
       </c>
@@ -10707,7 +10705,7 @@
         <v>0.83313411500000001</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>256</v>
       </c>
@@ -10733,7 +10731,7 @@
         <v>0.86662089799999997</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>258</v>
       </c>
@@ -10759,7 +10757,7 @@
         <v>0.78618454900000001</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>260</v>
       </c>
@@ -10785,7 +10783,7 @@
         <v>0.64561522000000005</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>262</v>
       </c>
@@ -10811,7 +10809,7 @@
         <v>0.69134020799999996</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>264</v>
       </c>
@@ -10837,7 +10835,7 @@
         <v>0.82233411099999998</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>266</v>
       </c>
@@ -10863,7 +10861,7 @@
         <v>0.75890815300000003</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>268</v>
       </c>
@@ -10895,7 +10893,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>270</v>
       </c>
@@ -10930,7 +10928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>272</v>
       </c>
@@ -10956,7 +10954,7 @@
         <v>0.88375556499999997</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>274</v>
       </c>
@@ -10988,7 +10986,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>276</v>
       </c>
@@ -11014,7 +11012,7 @@
         <v>0.66883099099999999</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>278</v>
       </c>
@@ -11040,7 +11038,7 @@
         <v>0.92945772400000004</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -11066,7 +11064,7 @@
         <v>0.60178089099999998</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>282</v>
       </c>
@@ -11092,7 +11090,7 @@
         <v>0.766556978</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>284</v>
       </c>
@@ -11118,7 +11116,7 @@
         <v>0.922215283</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>286</v>
       </c>
@@ -11144,7 +11142,7 @@
         <v>0.55294156100000003</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>288</v>
       </c>
@@ -11170,7 +11168,7 @@
         <v>0.80982166499999997</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>290</v>
       </c>
@@ -11196,7 +11194,7 @@
         <v>0.89085102100000002</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>292</v>
       </c>
@@ -11222,7 +11220,7 @@
         <v>0.77317655100000005</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>294</v>
       </c>
@@ -11248,7 +11246,7 @@
         <v>0.57906806499999997</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>296</v>
       </c>
@@ -11274,7 +11272,7 @@
         <v>0.72453510799999998</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>298</v>
       </c>
@@ -11300,7 +11298,7 @@
         <v>0.56301039500000005</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>300</v>
       </c>
@@ -11326,7 +11324,7 @@
         <v>0.8643381</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>302</v>
       </c>
@@ -11381,7 +11379,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>306</v>
       </c>
@@ -11407,7 +11405,7 @@
         <v>0.51810634099999997</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -11433,7 +11431,7 @@
         <v>0.90315991600000001</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>310</v>
       </c>
@@ -11459,7 +11457,7 @@
         <v>0.91953671000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>312</v>
       </c>
@@ -11485,7 +11483,7 @@
         <v>0.92373168500000002</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>314</v>
       </c>
@@ -11511,7 +11509,7 @@
         <v>0.91841041999999995</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>316</v>
       </c>
@@ -11537,7 +11535,7 @@
         <v>0.796534717</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>318</v>
       </c>
@@ -11563,7 +11561,7 @@
         <v>0.620931923</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>320</v>
       </c>
@@ -11615,7 +11613,7 @@
         <v>0.88534223999999995</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>324</v>
       </c>
@@ -11641,7 +11639,7 @@
         <v>0.62772297899999996</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>326</v>
       </c>
@@ -11667,7 +11665,7 @@
         <v>0.60199314400000004</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>328</v>
       </c>
@@ -11693,7 +11691,7 @@
         <v>0.807847023</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>330</v>
       </c>
@@ -11719,7 +11717,7 @@
         <v>0.97190803299999995</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -11745,7 +11743,7 @@
         <v>0.92716741599999997</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>334</v>
       </c>
@@ -11771,7 +11769,7 @@
         <v>0.73292100400000004</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -11797,7 +11795,7 @@
         <v>0.70229887999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>338</v>
       </c>
@@ -11823,7 +11821,7 @@
         <v>0.66916889000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>340</v>
       </c>
@@ -11852,7 +11850,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>342</v>
       </c>
@@ -11878,7 +11876,7 @@
         <v>0.89135861400000005</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>344</v>
       </c>
@@ -11904,7 +11902,7 @@
         <v>0.91612738400000004</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>346</v>
       </c>
@@ -11930,7 +11928,7 @@
         <v>0.60892260099999995</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>348</v>
       </c>
@@ -11956,7 +11954,7 @@
         <v>0.79509592100000004</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>350</v>
       </c>
@@ -11982,7 +11980,7 @@
         <v>0.60002922999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>352</v>
       </c>
@@ -12017,7 +12015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>354</v>
       </c>
@@ -12043,7 +12041,7 @@
         <v>0.570861697</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>356</v>
       </c>
@@ -12069,7 +12067,7 @@
         <v>0.82303643199999998</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>358</v>
       </c>
@@ -12095,7 +12093,7 @@
         <v>0.74025404500000003</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>360</v>
       </c>
@@ -12121,7 +12119,7 @@
         <v>0.63834446700000003</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>362</v>
       </c>
@@ -12147,7 +12145,7 @@
         <v>0.502436459</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>364</v>
       </c>
@@ -12173,7 +12171,7 @@
         <v>0.56004655400000003</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>366</v>
       </c>
@@ -12199,7 +12197,7 @@
         <v>0.93836039299999996</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>368</v>
       </c>
@@ -12225,7 +12223,7 @@
         <v>0.58180659999999995</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>370</v>
       </c>
@@ -12251,7 +12249,7 @@
         <v>0.82868432999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="390" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>372</v>
       </c>
@@ -12277,7 +12275,7 @@
         <v>0.91235297900000001</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>374</v>
       </c>
@@ -12303,7 +12301,7 @@
         <v>0.90841746300000004</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -12329,7 +12327,7 @@
         <v>0.77347755399999996</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>378</v>
       </c>
@@ -12355,7 +12353,7 @@
         <v>0.87526297600000003</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>380</v>
       </c>
@@ -12381,7 +12379,7 @@
         <v>0.53044271499999995</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>382</v>
       </c>
@@ -12407,7 +12405,7 @@
         <v>0.635681987</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>384</v>
       </c>
@@ -12433,7 +12431,7 @@
         <v>0.57464760500000001</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>386</v>
       </c>
@@ -12468,7 +12466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>388</v>
       </c>
@@ -12494,7 +12492,7 @@
         <v>0.54493361699999998</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>390</v>
       </c>
@@ -12520,7 +12518,7 @@
         <v>0.70040804099999998</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>392</v>
       </c>
@@ -12546,7 +12544,7 @@
         <v>0.91303938600000001</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>394</v>
       </c>
@@ -12572,7 +12570,7 @@
         <v>0.82648611100000002</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>396</v>
       </c>
@@ -12607,7 +12605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>398</v>
       </c>
@@ -12659,7 +12657,7 @@
         <v>0.60940623299999996</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>402</v>
       </c>
@@ -12685,7 +12683,7 @@
         <v>0.821591556</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>404</v>
       </c>
@@ -12711,7 +12709,7 @@
         <v>0.57610690600000003</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>406</v>
       </c>
@@ -12737,7 +12735,7 @@
         <v>0.90248405899999995</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>408</v>
       </c>
@@ -12763,7 +12761,7 @@
         <v>0.90669566400000001</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>410</v>
       </c>
@@ -12795,7 +12793,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>412</v>
       </c>
@@ -12821,7 +12819,7 @@
         <v>0.57048386299999998</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>414</v>
       </c>
@@ -12847,7 +12845,7 @@
         <v>0.91082191499999998</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>416</v>
       </c>
@@ -12902,7 +12900,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>420</v>
       </c>
@@ -12928,7 +12926,7 @@
         <v>0.70400589700000005</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>422</v>
       </c>
@@ -12954,7 +12952,7 @@
         <v>0.52939707000000003</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>424</v>
       </c>
@@ -12980,7 +12978,7 @@
         <v>0.61118829299999999</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>426</v>
       </c>
@@ -13006,7 +13004,7 @@
         <v>0.77463960600000004</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>428</v>
       </c>
@@ -13032,7 +13030,7 @@
         <v>0.550995648</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>430</v>
       </c>
@@ -13058,7 +13056,7 @@
         <v>0.616700888</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>84</v>
       </c>
@@ -13110,7 +13108,7 @@
         <v>0.59469777300000004</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>434</v>
       </c>
@@ -13136,7 +13134,7 @@
         <v>0.780616105</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>436</v>
       </c>
@@ -13162,7 +13160,7 @@
         <v>0.55784398300000004</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>438</v>
       </c>
@@ -13188,7 +13186,7 @@
         <v>0.95070016400000001</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>440</v>
       </c>
@@ -13214,7 +13212,7 @@
         <v>0.54309660199999998</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>442</v>
       </c>
@@ -13240,7 +13238,7 @@
         <v>0.88990211500000005</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>444</v>
       </c>
@@ -13266,7 +13264,7 @@
         <v>0.70548707200000005</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>446</v>
       </c>
@@ -13292,7 +13290,7 @@
         <v>0.80572217700000004</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>448</v>
       </c>
@@ -13318,7 +13316,7 @@
         <v>0.75486117600000002</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>450</v>
       </c>
@@ -13344,7 +13342,7 @@
         <v>0.77988463600000002</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>452</v>
       </c>
@@ -13370,7 +13368,7 @@
         <v>0.75090581199999995</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>454</v>
       </c>
@@ -13396,7 +13394,7 @@
         <v>0.79456722700000004</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>456</v>
       </c>
@@ -13422,7 +13420,7 @@
         <v>0.78360867499999998</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>458</v>
       </c>
@@ -13451,7 +13449,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>460</v>
       </c>
@@ -13486,7 +13484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>462</v>
       </c>
@@ -13512,7 +13510,7 @@
         <v>0.55072534100000003</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>464</v>
       </c>
@@ -13538,7 +13536,7 @@
         <v>0.56324094499999999</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>466</v>
       </c>
@@ -13564,7 +13562,7 @@
         <v>0.75026601599999998</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>468</v>
       </c>
@@ -13590,7 +13588,7 @@
         <v>0.75182217399999995</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>470</v>
       </c>
@@ -13616,7 +13614,7 @@
         <v>0.85973942299999995</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>472</v>
       </c>
@@ -13642,7 +13640,7 @@
         <v>0.52340704199999999</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>474</v>
       </c>
@@ -13668,7 +13666,7 @@
         <v>0.95714718099999996</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>476</v>
       </c>
@@ -13694,7 +13692,7 @@
         <v>0.85528218700000003</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>478</v>
       </c>
@@ -13720,7 +13718,7 @@
         <v>0.57778930699999997</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>480</v>
       </c>
@@ -13746,7 +13744,7 @@
         <v>0.62057662000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>482</v>
       </c>
@@ -13772,7 +13770,7 @@
         <v>0.61930036499999996</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="330" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>484</v>
       </c>
@@ -13798,7 +13796,7 @@
         <v>0.66367542700000004</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>486</v>
       </c>
@@ -13824,7 +13822,7 @@
         <v>0.62906652699999999</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="390" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>488</v>
       </c>
@@ -13850,7 +13848,7 @@
         <v>0.68925350900000004</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>490</v>
       </c>
@@ -13876,7 +13874,7 @@
         <v>0.87362778200000002</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>492</v>
       </c>
@@ -13902,7 +13900,7 @@
         <v>0.70691210000000004</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>494</v>
       </c>
@@ -13928,7 +13926,7 @@
         <v>0.68157976899999995</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>496</v>
       </c>
@@ -13954,7 +13952,7 @@
         <v>0.82572054900000003</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>498</v>
       </c>
@@ -13986,7 +13984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>500</v>
       </c>
@@ -14012,7 +14010,7 @@
         <v>0.57176858200000003</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>502</v>
       </c>
@@ -14041,7 +14039,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>504</v>
       </c>
@@ -14067,7 +14065,7 @@
         <v>0.765591621</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>506</v>
       </c>
@@ -14093,7 +14091,7 @@
         <v>0.75437676899999995</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>508</v>
       </c>
@@ -14119,7 +14117,7 @@
         <v>0.61374437800000003</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>510</v>
       </c>
@@ -14154,7 +14152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>512</v>
       </c>
@@ -14180,7 +14178,7 @@
         <v>0.86431878799999995</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>514</v>
       </c>
@@ -14206,7 +14204,7 @@
         <v>0.79178416699999998</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>516</v>
       </c>
@@ -14232,7 +14230,7 @@
         <v>0.78122478699999998</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>518</v>
       </c>
@@ -14258,7 +14256,7 @@
         <v>0.60530579100000004</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>520</v>
       </c>
@@ -14310,7 +14308,7 @@
         <v>0.97976517699999999</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>524</v>
       </c>
@@ -14336,7 +14334,7 @@
         <v>0.80727738100000002</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>526</v>
       </c>
@@ -14362,7 +14360,7 @@
         <v>0.917411804</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>528</v>
       </c>
@@ -14388,7 +14386,7 @@
         <v>0.74883878199999998</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>530</v>
       </c>
@@ -14414,7 +14412,7 @@
         <v>0.72717207699999997</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>532</v>
       </c>
@@ -14440,7 +14438,7 @@
         <v>0.62410122199999996</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>534</v>
       </c>
@@ -14466,7 +14464,7 @@
         <v>0.62407320700000002</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>536</v>
       </c>
@@ -14492,7 +14490,7 @@
         <v>0.88709795499999999</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>538</v>
       </c>
@@ -14518,7 +14516,7 @@
         <v>0.75465261900000002</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>540</v>
       </c>
@@ -14544,7 +14542,7 @@
         <v>0.81278622199999995</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>542</v>
       </c>
@@ -14570,7 +14568,7 @@
         <v>0.63791578999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>84</v>
       </c>
@@ -14596,7 +14594,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>544</v>
       </c>
@@ -14622,7 +14620,7 @@
         <v>0.92678517100000002</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>84</v>
       </c>
@@ -14648,7 +14646,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>546</v>
       </c>
@@ -14674,7 +14672,7 @@
         <v>0.75285548000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>548</v>
       </c>
@@ -14700,7 +14698,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>549</v>
       </c>
@@ -14726,7 +14724,7 @@
         <v>0.87616825099999995</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>551</v>
       </c>
@@ -14752,7 +14750,7 @@
         <v>0.71375453499999997</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>84</v>
       </c>
@@ -14778,7 +14776,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>553</v>
       </c>
@@ -14804,7 +14802,7 @@
         <v>0.93462634099999997</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>555</v>
       </c>
@@ -14830,7 +14828,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>556</v>
       </c>
@@ -14856,7 +14854,7 @@
         <v>0.76678937700000005</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>558</v>
       </c>
@@ -14882,7 +14880,7 @@
         <v>0.62044763599999997</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>560</v>
       </c>
@@ -14908,7 +14906,7 @@
         <v>0.93867611900000003</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>562</v>
       </c>
@@ -14934,7 +14932,7 @@
         <v>0.54515445200000001</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>564</v>
       </c>
@@ -14960,7 +14958,7 @@
         <v>0.594552517</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>566</v>
       </c>
@@ -14986,7 +14984,7 @@
         <v>0.82349032200000005</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -15012,7 +15010,7 @@
         <v>0.65922719200000002</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>570</v>
       </c>
@@ -15038,7 +15036,7 @@
         <v>0.80978888299999996</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>572</v>
       </c>
@@ -15064,7 +15062,7 @@
         <v>0.54431271599999997</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>574</v>
       </c>
@@ -15090,7 +15088,7 @@
         <v>0.61963981400000001</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>576</v>
       </c>
@@ -15116,7 +15114,7 @@
         <v>0.51224720499999998</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>578</v>
       </c>
@@ -15142,7 +15140,7 @@
         <v>0.61265480500000002</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>580</v>
       </c>
@@ -15168,7 +15166,7 @@
         <v>0.90136766400000001</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -15194,7 +15192,7 @@
         <v>0.51108074199999998</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -15220,7 +15218,7 @@
         <v>0.80853187999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -15246,7 +15244,7 @@
         <v>0.80664056500000003</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>588</v>
       </c>
@@ -15272,7 +15270,7 @@
         <v>0.54812508800000004</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>590</v>
       </c>
@@ -15298,7 +15296,7 @@
         <v>0.60527598900000001</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>592</v>
       </c>
@@ -15324,7 +15322,7 @@
         <v>0.71649956699999995</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>594</v>
       </c>
@@ -15350,7 +15348,7 @@
         <v>0.64587140099999996</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>596</v>
       </c>
@@ -15376,7 +15374,7 @@
         <v>0.90208876100000002</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>598</v>
       </c>
@@ -15402,7 +15400,7 @@
         <v>0.51434671899999995</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>600</v>
       </c>
@@ -15428,7 +15426,7 @@
         <v>0.74703907999999997</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -15454,7 +15452,7 @@
         <v>0.74627548499999996</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>604</v>
       </c>
@@ -15480,7 +15478,7 @@
         <v>0.950817943</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>606</v>
       </c>
@@ -15506,7 +15504,7 @@
         <v>0.66581714199999997</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>608</v>
       </c>
@@ -15532,7 +15530,7 @@
         <v>0.755363703</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>610</v>
       </c>
@@ -15558,7 +15556,7 @@
         <v>0.66874128600000005</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>612</v>
       </c>
@@ -15584,7 +15582,7 @@
         <v>0.77322381699999998</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>614</v>
       </c>
@@ -15610,7 +15608,7 @@
         <v>0.74272119999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>84</v>
       </c>
@@ -15636,7 +15634,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>616</v>
       </c>
@@ -15662,7 +15660,7 @@
         <v>0.86506283299999998</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>618</v>
       </c>
@@ -15688,7 +15686,7 @@
         <v>0.52953714100000004</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>620</v>
       </c>
@@ -15714,7 +15712,7 @@
         <v>0.50146740700000003</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>84</v>
       </c>
@@ -15740,7 +15738,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>622</v>
       </c>
@@ -15766,7 +15764,7 @@
         <v>0.81383472700000004</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>84</v>
       </c>
@@ -15792,7 +15790,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>624</v>
       </c>
@@ -15818,7 +15816,7 @@
         <v>0.78775519100000002</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>626</v>
       </c>
@@ -15850,7 +15848,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>84</v>
       </c>
@@ -15876,7 +15874,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>628</v>
       </c>
@@ -15902,7 +15900,7 @@
         <v>0.78949135500000001</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>630</v>
       </c>
@@ -15928,7 +15926,7 @@
         <v>0.92021715599999998</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>632</v>
       </c>
@@ -15954,7 +15952,7 @@
         <v>0.69837915900000003</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>84</v>
       </c>
@@ -15980,7 +15978,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>634</v>
       </c>
@@ -16006,7 +16004,7 @@
         <v>0.93631058899999997</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>636</v>
       </c>
@@ -16038,7 +16036,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>638</v>
       </c>
@@ -16064,7 +16062,7 @@
         <v>0.87006998099999999</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>640</v>
       </c>
@@ -16090,7 +16088,7 @@
         <v>0.54449349599999997</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>642</v>
       </c>
@@ -16116,7 +16114,7 @@
         <v>0.92575299700000002</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>644</v>
       </c>
@@ -16142,7 +16140,7 @@
         <v>0.52716058499999996</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>646</v>
       </c>
@@ -16168,7 +16166,7 @@
         <v>0.52299576999999997</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>648</v>
       </c>
@@ -16194,7 +16192,7 @@
         <v>0.53043305900000004</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>650</v>
       </c>
@@ -16220,7 +16218,7 @@
         <v>0.68946099299999997</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="375" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>652</v>
       </c>
@@ -16246,7 +16244,7 @@
         <v>0.82969599999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>654</v>
       </c>
@@ -16272,7 +16270,7 @@
         <v>0.89284497500000004</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>84</v>
       </c>
@@ -16298,7 +16296,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>656</v>
       </c>
@@ -16324,7 +16322,7 @@
         <v>0.63349133700000004</v>
       </c>
     </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>658</v>
       </c>
@@ -16350,7 +16348,7 @@
         <v>0.89713972799999997</v>
       </c>
     </row>
-    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>660</v>
       </c>
@@ -16376,7 +16374,7 @@
         <v>0.60266476899999999</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>662</v>
       </c>
@@ -16408,7 +16406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>664</v>
       </c>
@@ -16434,7 +16432,7 @@
         <v>0.96983981100000005</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>666</v>
       </c>
@@ -16460,7 +16458,7 @@
         <v>0.87367695599999995</v>
       </c>
     </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>668</v>
       </c>
@@ -16486,7 +16484,7 @@
         <v>0.78718769600000005</v>
       </c>
     </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>670</v>
       </c>
@@ -16512,7 +16510,7 @@
         <v>0.55245006100000005</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>672</v>
       </c>
@@ -16538,7 +16536,7 @@
         <v>0.84227085099999999</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>674</v>
       </c>
@@ -16564,7 +16562,7 @@
         <v>0.66956818100000004</v>
       </c>
     </row>
-    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>676</v>
       </c>
@@ -16590,7 +16588,7 @@
         <v>0.62597483399999998</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>678</v>
       </c>
@@ -16616,7 +16614,7 @@
         <v>0.76104849600000002</v>
       </c>
     </row>
-    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>680</v>
       </c>
@@ -16642,7 +16640,7 @@
         <v>0.73223286899999995</v>
       </c>
     </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>682</v>
       </c>
@@ -16668,7 +16666,7 @@
         <v>0.84933340499999999</v>
       </c>
     </row>
-    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>684</v>
       </c>
@@ -16694,7 +16692,7 @@
         <v>0.88291698699999999</v>
       </c>
     </row>
-    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>686</v>
       </c>
@@ -16720,7 +16718,7 @@
         <v>0.51615464700000002</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>688</v>
       </c>
@@ -16746,7 +16744,7 @@
         <v>0.52955746699999995</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>690</v>
       </c>
@@ -16772,7 +16770,7 @@
         <v>0.654634893</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>692</v>
       </c>
@@ -16798,7 +16796,7 @@
         <v>0.79129207099999999</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>694</v>
       </c>
@@ -16824,7 +16822,7 @@
         <v>0.84889954300000003</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>84</v>
       </c>
@@ -16850,7 +16848,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>696</v>
       </c>
@@ -16876,7 +16874,7 @@
         <v>0.714995563</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>698</v>
       </c>
@@ -16902,7 +16900,7 @@
         <v>0.97495001599999997</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>700</v>
       </c>
@@ -16928,7 +16926,7 @@
         <v>0.72352313999999995</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>702</v>
       </c>
@@ -16954,7 +16952,7 @@
         <v>0.92355978500000002</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>704</v>
       </c>
@@ -16980,7 +16978,7 @@
         <v>0.69656294600000002</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>706</v>
       </c>
@@ -17006,7 +17004,7 @@
         <v>0.53840649100000004</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>708</v>
       </c>
@@ -17032,7 +17030,7 @@
         <v>0.897579193</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>710</v>
       </c>
@@ -17058,7 +17056,7 @@
         <v>0.73673909900000001</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>712</v>
       </c>
@@ -17084,7 +17082,7 @@
         <v>0.53772431600000004</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>714</v>
       </c>
@@ -17110,7 +17108,7 @@
         <v>0.73306524799999995</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>716</v>
       </c>
@@ -17136,7 +17134,7 @@
         <v>0.86606329699999995</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>718</v>
       </c>
@@ -17162,7 +17160,7 @@
         <v>0.73189008200000005</v>
       </c>
     </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>720</v>
       </c>
@@ -17188,7 +17186,7 @@
         <v>0.64364266400000003</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>722</v>
       </c>
@@ -17214,7 +17212,7 @@
         <v>0.84359455100000003</v>
       </c>
     </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>724</v>
       </c>
@@ -17240,7 +17238,7 @@
         <v>0.75014114399999998</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>726</v>
       </c>
@@ -17266,7 +17264,7 @@
         <v>0.50755673599999995</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>728</v>
       </c>
@@ -17292,7 +17290,7 @@
         <v>0.65502834300000001</v>
       </c>
     </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>730</v>
       </c>
@@ -17318,7 +17316,7 @@
         <v>0.60679084100000003</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>732</v>
       </c>
@@ -17344,7 +17342,7 @@
         <v>0.82047903499999997</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>734</v>
       </c>
@@ -17370,7 +17368,7 @@
         <v>0.88255035900000001</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>736</v>
       </c>
@@ -17396,7 +17394,7 @@
         <v>0.91184997599999995</v>
       </c>
     </row>
-    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>738</v>
       </c>
@@ -17428,7 +17426,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>740</v>
       </c>
@@ -17454,7 +17452,7 @@
         <v>0.84666281899999996</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>84</v>
       </c>
@@ -17480,7 +17478,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>742</v>
       </c>
@@ -17506,7 +17504,7 @@
         <v>0.50530320399999995</v>
       </c>
     </row>
-    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>744</v>
       </c>
@@ -17538,7 +17536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>746</v>
       </c>
@@ -17564,7 +17562,7 @@
         <v>0.51923847199999995</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>748</v>
       </c>
@@ -17590,7 +17588,7 @@
         <v>0.63597208299999997</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>750</v>
       </c>
@@ -17616,7 +17614,7 @@
         <v>0.67613494399999996</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>752</v>
       </c>
@@ -17648,7 +17646,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>84</v>
       </c>
@@ -17674,7 +17672,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>754</v>
       </c>
@@ -17700,7 +17698,7 @@
         <v>0.63815677199999998</v>
       </c>
     </row>
-    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>756</v>
       </c>
@@ -17726,7 +17724,7 @@
         <v>0.61435985599999998</v>
       </c>
     </row>
-    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>758</v>
       </c>
@@ -17752,7 +17750,7 @@
         <v>0.89979791600000003</v>
       </c>
     </row>
-    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>760</v>
       </c>
@@ -17778,7 +17776,7 @@
         <v>0.65465945000000003</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>762</v>
       </c>
@@ -17804,7 +17802,7 @@
         <v>0.82894301400000003</v>
       </c>
     </row>
-    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>764</v>
       </c>
@@ -17830,7 +17828,7 @@
         <v>0.82943493099999999</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>766</v>
       </c>
@@ -17856,7 +17854,7 @@
         <v>0.842572451</v>
       </c>
     </row>
-    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>768</v>
       </c>
@@ -17882,7 +17880,7 @@
         <v>0.50957900300000003</v>
       </c>
     </row>
-    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>770</v>
       </c>
@@ -17908,7 +17906,7 @@
         <v>0.73389053299999996</v>
       </c>
     </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>772</v>
       </c>
@@ -17940,7 +17938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>774</v>
       </c>
@@ -17972,7 +17970,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>776</v>
       </c>
@@ -17998,7 +17996,7 @@
         <v>0.85016757200000004</v>
       </c>
     </row>
-    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>778</v>
       </c>
@@ -18024,7 +18022,7 @@
         <v>0.81654685699999996</v>
       </c>
     </row>
-    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>780</v>
       </c>
@@ -18050,7 +18048,7 @@
         <v>0.50547224300000004</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>84</v>
       </c>
@@ -18076,7 +18074,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>782</v>
       </c>
@@ -18102,7 +18100,7 @@
         <v>0.55322194099999999</v>
       </c>
     </row>
-    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>784</v>
       </c>
@@ -18128,7 +18126,7 @@
         <v>0.87940245900000003</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>786</v>
       </c>
@@ -18154,7 +18152,7 @@
         <v>0.65939509900000004</v>
       </c>
     </row>
-    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>788</v>
       </c>
@@ -18180,7 +18178,7 @@
         <v>0.82720714799999995</v>
       </c>
     </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>790</v>
       </c>
@@ -18206,7 +18204,7 @@
         <v>0.73015081900000001</v>
       </c>
     </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>792</v>
       </c>
@@ -18238,7 +18236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>794</v>
       </c>
@@ -18264,7 +18262,7 @@
         <v>0.68541693699999995</v>
       </c>
     </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>796</v>
       </c>
@@ -18290,7 +18288,7 @@
         <v>0.64851742999999995</v>
       </c>
     </row>
-    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>798</v>
       </c>
@@ -18316,7 +18314,7 @@
         <v>0.51177990399999995</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>800</v>
       </c>
@@ -18342,7 +18340,7 @@
         <v>0.89152413600000002</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>802</v>
       </c>
@@ -18368,7 +18366,7 @@
         <v>0.82202655099999999</v>
       </c>
     </row>
-    <row r="414" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>804</v>
       </c>
@@ -18394,7 +18392,7 @@
         <v>0.68163585699999996</v>
       </c>
     </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>806</v>
       </c>
@@ -18420,7 +18418,7 @@
         <v>0.60244226499999998</v>
       </c>
     </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>808</v>
       </c>
@@ -18446,7 +18444,7 @@
         <v>0.86232781400000003</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>810</v>
       </c>
@@ -18472,7 +18470,7 @@
         <v>0.66762810900000003</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>812</v>
       </c>
@@ -18498,7 +18496,7 @@
         <v>0.67980873600000002</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>814</v>
       </c>
@@ -18524,7 +18522,7 @@
         <v>0.83442234999999998</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>816</v>
       </c>
@@ -18550,7 +18548,7 @@
         <v>0.83876568100000004</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>818</v>
       </c>
@@ -18576,7 +18574,7 @@
         <v>0.86659854700000005</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>820</v>
       </c>
@@ -18602,7 +18600,7 @@
         <v>0.76135313500000001</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>84</v>
       </c>
@@ -18628,7 +18626,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="390" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>822</v>
       </c>
@@ -18654,7 +18652,7 @@
         <v>0.89821320800000004</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>824</v>
       </c>
@@ -18680,7 +18678,7 @@
         <v>0.89217239599999998</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>826</v>
       </c>
@@ -18706,7 +18704,7 @@
         <v>0.63134163600000004</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>828</v>
       </c>
@@ -18732,7 +18730,7 @@
         <v>0.62301546299999999</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>84</v>
       </c>
@@ -18758,7 +18756,7 @@
         <v>0.91506427499999998</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>830</v>
       </c>
@@ -18784,7 +18782,7 @@
         <v>0.70837867300000001</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>832</v>
       </c>
@@ -18813,7 +18811,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>834</v>
       </c>
@@ -18839,7 +18837,7 @@
         <v>0.53601157700000002</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>836</v>
       </c>
@@ -18865,7 +18863,7 @@
         <v>0.70126795799999997</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>838</v>
       </c>
@@ -18891,7 +18889,7 @@
         <v>0.85068792100000001</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>840</v>
       </c>
@@ -18917,7 +18915,7 @@
         <v>0.75571900599999997</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>842</v>
       </c>
@@ -18943,7 +18941,7 @@
         <v>0.56306827100000001</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>844</v>
       </c>
@@ -18969,7 +18967,7 @@
         <v>0.74718022299999998</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>846</v>
       </c>
@@ -18995,7 +18993,7 @@
         <v>0.50429934300000001</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>848</v>
       </c>
@@ -19021,7 +19019,7 @@
         <v>0.86577022100000001</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>850</v>
       </c>
@@ -19047,7 +19045,7 @@
         <v>0.54991471800000002</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>852</v>
       </c>
@@ -19073,7 +19071,7 @@
         <v>0.91622984399999996</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>854</v>
       </c>
@@ -19099,7 +19097,7 @@
         <v>0.55217146900000003</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>856</v>
       </c>
@@ -19131,7 +19129,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>858</v>
       </c>
@@ -19157,7 +19155,7 @@
         <v>0.808748841</v>
       </c>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>860</v>
       </c>
@@ -19183,7 +19181,7 @@
         <v>0.80807662000000002</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>862</v>
       </c>
@@ -19215,7 +19213,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>864</v>
       </c>
@@ -19241,7 +19239,7 @@
         <v>0.64968264099999995</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>866</v>
       </c>
@@ -19267,7 +19265,7 @@
         <v>0.92271363699999998</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>868</v>
       </c>
@@ -19293,7 +19291,7 @@
         <v>0.68934774399999998</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>870</v>
       </c>
@@ -19325,7 +19323,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>872</v>
       </c>
@@ -19351,7 +19349,7 @@
         <v>0.90799754899999996</v>
       </c>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>874</v>
       </c>
@@ -19377,7 +19375,7 @@
         <v>0.65721774099999997</v>
       </c>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>876</v>
       </c>
@@ -19403,7 +19401,7 @@
         <v>0.79910135299999996</v>
       </c>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>878</v>
       </c>
@@ -19429,7 +19427,7 @@
         <v>0.64979463800000004</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>880</v>
       </c>
@@ -19455,7 +19453,7 @@
         <v>0.57457202699999999</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>882</v>
       </c>
@@ -19481,7 +19479,7 @@
         <v>0.88778847500000002</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>884</v>
       </c>
@@ -19507,7 +19505,7 @@
         <v>0.74794095800000004</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>886</v>
       </c>
@@ -19533,7 +19531,7 @@
         <v>0.58612161900000004</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>888</v>
       </c>
@@ -19559,7 +19557,7 @@
         <v>0.54411536500000002</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>890</v>
       </c>
@@ -19585,7 +19583,7 @@
         <v>0.75178211900000003</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>892</v>
       </c>
@@ -19611,7 +19609,7 @@
         <v>0.827859342</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>894</v>
       </c>
@@ -19637,7 +19635,7 @@
         <v>0.78055536700000006</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>896</v>
       </c>
@@ -19663,7 +19661,7 @@
         <v>0.61486172699999997</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>898</v>
       </c>
@@ -19689,7 +19687,7 @@
         <v>0.87277442199999999</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>900</v>
       </c>
@@ -19715,7 +19713,7 @@
         <v>0.53704971099999999</v>
       </c>
     </row>
-    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>902</v>
       </c>
@@ -19741,7 +19739,7 @@
         <v>0.68029260599999997</v>
       </c>
     </row>
-    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>904</v>
       </c>
@@ -19767,7 +19765,7 @@
         <v>0.537632585</v>
       </c>
     </row>
-    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>906</v>
       </c>
@@ -19793,7 +19791,7 @@
         <v>0.64650887300000004</v>
       </c>
     </row>
-    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>908</v>
       </c>
@@ -19819,7 +19817,7 @@
         <v>0.71360993399999995</v>
       </c>
     </row>
-    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>910</v>
       </c>
@@ -19845,7 +19843,7 @@
         <v>0.79237186900000001</v>
       </c>
     </row>
-    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>912</v>
       </c>
@@ -19871,7 +19869,7 @@
         <v>0.57843595699999995</v>
       </c>
     </row>
-    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>914</v>
       </c>
@@ -19903,7 +19901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>916</v>
       </c>
@@ -19929,7 +19927,7 @@
         <v>0.76253300899999998</v>
       </c>
     </row>
-    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>918</v>
       </c>
@@ -19955,7 +19953,7 @@
         <v>0.70300650600000003</v>
       </c>
     </row>
-    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>920</v>
       </c>
@@ -19981,7 +19979,7 @@
         <v>0.93052488600000005</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" ht="315" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>922</v>
       </c>
@@ -20007,7 +20005,7 @@
         <v>0.74227809899999997</v>
       </c>
     </row>
-    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>924</v>
       </c>
@@ -20033,7 +20031,7 @@
         <v>0.849019945</v>
       </c>
     </row>
-    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>926</v>
       </c>
@@ -20059,7 +20057,7 @@
         <v>0.67797028999999998</v>
       </c>
     </row>
-    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>928</v>
       </c>
@@ -20085,7 +20083,7 @@
         <v>0.63266515700000003</v>
       </c>
     </row>
-    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>930</v>
       </c>
@@ -20111,7 +20109,7 @@
         <v>0.88941174700000003</v>
       </c>
     </row>
-    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>932</v>
       </c>
@@ -20137,7 +20135,7 @@
         <v>0.64674830400000005</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>934</v>
       </c>
@@ -20163,7 +20161,7 @@
         <v>0.779176176</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>936</v>
       </c>
@@ -20189,7 +20187,7 @@
         <v>0.53141772700000001</v>
       </c>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>938</v>
       </c>
@@ -20215,7 +20213,7 @@
         <v>0.61622524300000003</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>940</v>
       </c>
@@ -20241,7 +20239,7 @@
         <v>0.73968923099999995</v>
       </c>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>942</v>
       </c>
@@ -20267,7 +20265,7 @@
         <v>0.67371684300000001</v>
       </c>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>944</v>
       </c>
@@ -20293,7 +20291,7 @@
         <v>0.83163672700000002</v>
       </c>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>946</v>
       </c>
@@ -20319,7 +20317,7 @@
         <v>0.857474446</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>948</v>
       </c>
@@ -20345,7 +20343,7 @@
         <v>0.92063307800000005</v>
       </c>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>950</v>
       </c>
@@ -20377,7 +20375,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>952</v>
       </c>
@@ -20403,7 +20401,7 @@
         <v>0.83230656400000003</v>
       </c>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>954</v>
       </c>
@@ -20429,7 +20427,7 @@
         <v>0.81841456899999998</v>
       </c>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>956</v>
       </c>
@@ -20455,7 +20453,7 @@
         <v>0.66735339199999999</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>958</v>
       </c>
@@ -20481,7 +20479,7 @@
         <v>0.71013933399999996</v>
       </c>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>960</v>
       </c>
@@ -20507,7 +20505,7 @@
         <v>0.53381729099999997</v>
       </c>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>962</v>
       </c>
@@ -20533,7 +20531,7 @@
         <v>0.77814966399999996</v>
       </c>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>964</v>
       </c>
@@ -20559,7 +20557,7 @@
         <v>0.91014355400000002</v>
       </c>
     </row>
-    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>966</v>
       </c>
@@ -20585,7 +20583,7 @@
         <v>0.66761648699999998</v>
       </c>
     </row>
-    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>968</v>
       </c>
@@ -20611,7 +20609,7 @@
         <v>0.65396392299999995</v>
       </c>
     </row>
-    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>970</v>
       </c>
@@ -20637,7 +20635,7 @@
         <v>0.523203313</v>
       </c>
     </row>
-    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>972</v>
       </c>
@@ -20663,7 +20661,7 @@
         <v>0.52908456299999995</v>
       </c>
     </row>
-    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>974</v>
       </c>
@@ -20689,7 +20687,7 @@
         <v>0.82469117599999997</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>976</v>
       </c>
@@ -20715,7 +20713,7 @@
         <v>0.61337465000000002</v>
       </c>
     </row>
-    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>978</v>
       </c>
@@ -20741,7 +20739,7 @@
         <v>0.72261989100000001</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>980</v>
       </c>
@@ -20767,7 +20765,7 @@
         <v>0.59012359400000003</v>
       </c>
     </row>
-    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>982</v>
       </c>
@@ -20793,7 +20791,7 @@
         <v>0.57132106999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>984</v>
       </c>
@@ -20819,7 +20817,7 @@
         <v>0.72146618399999995</v>
       </c>
     </row>
-    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>986</v>
       </c>
@@ -20845,7 +20843,7 @@
         <v>0.80078733000000002</v>
       </c>
     </row>
-    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>988</v>
       </c>
@@ -20871,7 +20869,7 @@
         <v>0.59906423099999995</v>
       </c>
     </row>
-    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>990</v>
       </c>
@@ -20897,7 +20895,7 @@
         <v>0.70078235899999997</v>
       </c>
     </row>
-    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>992</v>
       </c>
@@ -20923,7 +20921,7 @@
         <v>0.76263666200000002</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>994</v>
       </c>
@@ -20952,7 +20950,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>996</v>
       </c>
@@ -20978,7 +20976,7 @@
         <v>0.57617628600000004</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>998</v>
       </c>
@@ -21004,7 +21002,7 @@
         <v>0.73680526000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1000</v>
       </c>
@@ -21030,7 +21028,7 @@
         <v>0.88346719699999998</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1002</v>
       </c>
@@ -21056,7 +21054,7 @@
         <v>0.786409676</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1004</v>
       </c>
@@ -21082,7 +21080,7 @@
         <v>0.61512994799999998</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1006</v>
       </c>
@@ -21108,7 +21106,7 @@
         <v>0.56909334700000003</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1008</v>
       </c>
@@ -21134,7 +21132,7 @@
         <v>0.75842481900000003</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1010</v>
       </c>
@@ -21160,7 +21158,7 @@
         <v>0.76390320099999998</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1012</v>
       </c>
@@ -21186,7 +21184,7 @@
         <v>0.62040990600000001</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1014</v>
       </c>
@@ -21212,7 +21210,7 @@
         <v>0.746947527</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1016</v>
       </c>
@@ -21238,7 +21236,7 @@
         <v>0.56781977400000005</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1018</v>
       </c>
@@ -21264,7 +21262,7 @@
         <v>0.86427110399999996</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>1020</v>
       </c>
@@ -21290,7 +21288,7 @@
         <v>0.58635860699999998</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1022</v>
       </c>
@@ -21316,7 +21314,7 @@
         <v>0.85827589000000004</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1024</v>
       </c>
@@ -21342,7 +21340,7 @@
         <v>0.61357402800000005</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1026</v>
       </c>
@@ -21368,7 +21366,7 @@
         <v>0.520899534</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1028</v>
       </c>
@@ -21394,7 +21392,7 @@
         <v>0.65623849599999995</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1030</v>
       </c>
@@ -21420,7 +21418,7 @@
         <v>0.56120365900000002</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1032</v>
       </c>
@@ -21446,7 +21444,7 @@
         <v>0.66444241999999998</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>1034</v>
       </c>
@@ -21472,7 +21470,7 @@
         <v>0.74897676700000004</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1036</v>
       </c>
@@ -21498,7 +21496,7 @@
         <v>0.92176222799999996</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1038</v>
       </c>
@@ -21524,7 +21522,7 @@
         <v>0.69222033000000005</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1040</v>
       </c>
@@ -21550,7 +21548,7 @@
         <v>0.79648452999999997</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>1042</v>
       </c>
@@ -21576,7 +21574,7 @@
         <v>0.73459070900000001</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1044</v>
       </c>
@@ -21602,7 +21600,7 @@
         <v>0.57307505599999997</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1046</v>
       </c>
@@ -21628,7 +21626,7 @@
         <v>0.74134236600000003</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1048</v>
       </c>
@@ -21654,7 +21652,7 @@
         <v>0.73515587999999998</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1050</v>
       </c>
@@ -21680,7 +21678,7 @@
         <v>0.89495587300000001</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1052</v>
       </c>
@@ -21706,7 +21704,7 @@
         <v>0.68939018200000002</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1054</v>
       </c>
@@ -21732,7 +21730,7 @@
         <v>0.797656476</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1056</v>
       </c>
@@ -21758,7 +21756,7 @@
         <v>0.886218905</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1058</v>
       </c>
@@ -21784,7 +21782,7 @@
         <v>0.78619551700000001</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1060</v>
       </c>
@@ -21810,7 +21808,7 @@
         <v>0.57343453200000005</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1062</v>
       </c>
@@ -21836,7 +21834,7 @@
         <v>0.87037497799999997</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1064</v>
       </c>
@@ -21862,7 +21860,7 @@
         <v>0.79021960499999999</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1066</v>
       </c>
@@ -21888,7 +21886,7 @@
         <v>0.6095469</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1068</v>
       </c>
@@ -21914,7 +21912,7 @@
         <v>0.53820014000000005</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1070</v>
       </c>
@@ -21940,7 +21938,7 @@
         <v>0.93034183999999998</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1072</v>
       </c>
@@ -21966,7 +21964,7 @@
         <v>0.72759491200000004</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1074</v>
       </c>
@@ -21992,7 +21990,7 @@
         <v>0.57228159899999997</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1076</v>
       </c>
@@ -22018,7 +22016,7 @@
         <v>0.51343488699999995</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1078</v>
       </c>
@@ -22044,7 +22042,7 @@
         <v>0.93858885800000003</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1080</v>
       </c>
@@ -22070,7 +22068,7 @@
         <v>0.90515285700000003</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>1082</v>
       </c>
@@ -22096,7 +22094,7 @@
         <v>0.93507701200000004</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1084</v>
       </c>
@@ -22122,7 +22120,7 @@
         <v>0.72207641600000005</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1086</v>
       </c>
@@ -22148,7 +22146,7 @@
         <v>0.89720392199999999</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>1088</v>
       </c>
@@ -22174,7 +22172,7 @@
         <v>0.89298063500000002</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1090</v>
       </c>
@@ -22200,7 +22198,7 @@
         <v>0.944415212</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1092</v>
       </c>
@@ -22226,7 +22224,7 @@
         <v>0.78853589300000004</v>
       </c>
     </row>
-    <row r="561" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>1094</v>
       </c>
@@ -22261,7 +22259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1096</v>
       </c>
@@ -22287,7 +22285,7 @@
         <v>0.88845908600000001</v>
       </c>
     </row>
-    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1098</v>
       </c>
@@ -22313,7 +22311,7 @@
         <v>0.59394818500000002</v>
       </c>
     </row>
-    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1100</v>
       </c>
@@ -22339,7 +22337,7 @@
         <v>0.63225269299999998</v>
       </c>
     </row>
-    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1102</v>
       </c>
@@ -22391,7 +22389,7 @@
         <v>0.93007683799999996</v>
       </c>
     </row>
-    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1106</v>
       </c>
@@ -22417,7 +22415,7 @@
         <v>0.63822484000000002</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>1108</v>
       </c>
@@ -22443,7 +22441,7 @@
         <v>0.75614952999999996</v>
       </c>
     </row>
-    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1110</v>
       </c>
@@ -22469,7 +22467,7 @@
         <v>0.83432424100000002</v>
       </c>
     </row>
-    <row r="570" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1112</v>
       </c>
@@ -22495,7 +22493,7 @@
         <v>0.90256279699999997</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>1114</v>
       </c>
@@ -22521,7 +22519,7 @@
         <v>0.71687686399999995</v>
       </c>
     </row>
-    <row r="572" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1116</v>
       </c>
@@ -22547,7 +22545,7 @@
         <v>0.91014540200000005</v>
       </c>
     </row>
-    <row r="573" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>1118</v>
       </c>
@@ -22573,7 +22571,7 @@
         <v>0.73743826199999996</v>
       </c>
     </row>
-    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1120</v>
       </c>
@@ -22599,7 +22597,7 @@
         <v>0.64888238899999995</v>
       </c>
     </row>
-    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1122</v>
       </c>
@@ -22625,7 +22623,7 @@
         <v>0.77572077500000003</v>
       </c>
     </row>
-    <row r="576" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1124</v>
       </c>
@@ -22651,7 +22649,7 @@
         <v>0.62909507799999997</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>1126</v>
       </c>
@@ -22677,7 +22675,7 @@
         <v>0.68159347800000003</v>
       </c>
     </row>
-    <row r="578" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1128</v>
       </c>
@@ -22703,7 +22701,7 @@
         <v>0.73813658999999998</v>
       </c>
     </row>
-    <row r="579" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>1130</v>
       </c>
@@ -22729,7 +22727,7 @@
         <v>0.80471420299999996</v>
       </c>
     </row>
-    <row r="580" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1132</v>
       </c>
@@ -22755,7 +22753,7 @@
         <v>0.69328600200000001</v>
       </c>
     </row>
-    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1134</v>
       </c>
@@ -22781,7 +22779,7 @@
         <v>0.83824205399999996</v>
       </c>
     </row>
-    <row r="582" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>1136</v>
       </c>
@@ -22807,7 +22805,7 @@
         <v>0.77130407099999998</v>
       </c>
     </row>
-    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1138</v>
       </c>
@@ -22833,7 +22831,7 @@
         <v>0.53117311</v>
       </c>
     </row>
-    <row r="584" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1140</v>
       </c>
@@ -22859,7 +22857,7 @@
         <v>0.83015662400000001</v>
       </c>
     </row>
-    <row r="585" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1142</v>
       </c>
@@ -22885,7 +22883,7 @@
         <v>0.86597531999999999</v>
       </c>
     </row>
-    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1144</v>
       </c>
@@ -22911,7 +22909,7 @@
         <v>0.91773921300000005</v>
       </c>
     </row>
-    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1146</v>
       </c>
@@ -22937,7 +22935,7 @@
         <v>0.92744553100000005</v>
       </c>
     </row>
-    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1148</v>
       </c>
@@ -22969,7 +22967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1150</v>
       </c>
@@ -22995,7 +22993,7 @@
         <v>0.85822057699999998</v>
       </c>
     </row>
-    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1152</v>
       </c>
@@ -23021,7 +23019,7 @@
         <v>0.79489523200000001</v>
       </c>
     </row>
-    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1154</v>
       </c>
@@ -23047,7 +23045,7 @@
         <v>0.73479646399999998</v>
       </c>
     </row>
-    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1156</v>
       </c>
@@ -23079,7 +23077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>1158</v>
       </c>
@@ -23105,7 +23103,7 @@
         <v>0.60818624499999996</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1160</v>
       </c>
@@ -23131,7 +23129,7 @@
         <v>0.85346585500000005</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1162</v>
       </c>
@@ -23157,7 +23155,7 @@
         <v>0.88100576399999997</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1164</v>
       </c>
@@ -23183,7 +23181,7 @@
         <v>0.75112199800000001</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1166</v>
       </c>
@@ -23209,7 +23207,7 @@
         <v>0.875942051</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1168</v>
       </c>
@@ -23235,7 +23233,7 @@
         <v>0.87340581399999995</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1170</v>
       </c>
@@ -23261,7 +23259,7 @@
         <v>0.56587696099999996</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1172</v>
       </c>
@@ -23287,7 +23285,7 @@
         <v>0.56897825000000002</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1174</v>
       </c>
@@ -23313,7 +23311,7 @@
         <v>0.52290701900000003</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1176</v>
       </c>
@@ -23339,7 +23337,7 @@
         <v>0.50832182199999998</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1178</v>
       </c>
@@ -23365,7 +23363,7 @@
         <v>0.76370465799999998</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>1180</v>
       </c>
@@ -23391,7 +23389,7 @@
         <v>0.825095892</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1182</v>
       </c>
@@ -23417,7 +23415,7 @@
         <v>0.82586580499999995</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>1184</v>
       </c>
@@ -23443,7 +23441,7 @@
         <v>0.96485662500000002</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1186</v>
       </c>
@@ -23469,7 +23467,7 @@
         <v>0.84612405300000004</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1188</v>
       </c>
@@ -23495,7 +23493,7 @@
         <v>0.64345538599999996</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1190</v>
       </c>
@@ -23521,7 +23519,7 @@
         <v>0.64147341300000005</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1192</v>
       </c>
@@ -23547,7 +23545,7 @@
         <v>0.71737331199999999</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1194</v>
       </c>
@@ -23573,7 +23571,7 @@
         <v>0.53102886699999996</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1196</v>
       </c>
@@ -23599,7 +23597,7 @@
         <v>0.89962136699999995</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1198</v>
       </c>
@@ -23625,7 +23623,7 @@
         <v>0.68140292199999997</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>1200</v>
       </c>
@@ -23651,7 +23649,7 @@
         <v>0.52465260000000002</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>1202</v>
       </c>
@@ -23677,7 +23675,7 @@
         <v>0.78353297700000002</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>1204</v>
       </c>
@@ -23703,7 +23701,7 @@
         <v>0.52588135000000003</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1206</v>
       </c>
@@ -23729,7 +23727,7 @@
         <v>0.55583608200000001</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1208</v>
       </c>
@@ -23755,7 +23753,7 @@
         <v>0.72766429200000005</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1210</v>
       </c>
@@ -23781,7 +23779,7 @@
         <v>0.68245464600000005</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1212</v>
       </c>
@@ -23807,7 +23805,7 @@
         <v>0.75033771999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1214</v>
       </c>
@@ -23833,7 +23831,7 @@
         <v>0.80253106399999996</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1216</v>
       </c>
@@ -23859,7 +23857,7 @@
         <v>0.51628637300000002</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>1218</v>
       </c>
@@ -23885,7 +23883,7 @@
         <v>0.83897387999999995</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1220</v>
       </c>
@@ -23911,7 +23909,7 @@
         <v>0.67055815500000004</v>
       </c>
     </row>
-    <row r="625" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1222</v>
       </c>
@@ -23937,7 +23935,7 @@
         <v>0.53096783199999997</v>
       </c>
     </row>
-    <row r="626" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1224</v>
       </c>
@@ -23963,7 +23961,7 @@
         <v>0.90822488099999998</v>
       </c>
     </row>
-    <row r="627" spans="1:13" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:13" ht="375" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>1226</v>
       </c>
@@ -23989,7 +23987,7 @@
         <v>0.77979278600000002</v>
       </c>
     </row>
-    <row r="628" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1228</v>
       </c>
@@ -24024,7 +24022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="629" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1230</v>
       </c>
@@ -24050,7 +24048,7 @@
         <v>0.50741899000000001</v>
       </c>
     </row>
-    <row r="630" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1232</v>
       </c>
@@ -24076,7 +24074,7 @@
         <v>0.86028671300000004</v>
       </c>
     </row>
-    <row r="631" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1234</v>
       </c>
@@ -24102,7 +24100,7 @@
         <v>0.70484817</v>
       </c>
     </row>
-    <row r="632" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1236</v>
       </c>
@@ -24128,7 +24126,7 @@
         <v>0.844228745</v>
       </c>
     </row>
-    <row r="633" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1238</v>
       </c>
@@ -24154,7 +24152,7 @@
         <v>0.85775589900000004</v>
       </c>
     </row>
-    <row r="634" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1240</v>
       </c>
@@ -24180,7 +24178,7 @@
         <v>0.69337105799999998</v>
       </c>
     </row>
-    <row r="635" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1242</v>
       </c>
@@ -24206,7 +24204,7 @@
         <v>0.53624224700000001</v>
       </c>
     </row>
-    <row r="636" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1244</v>
       </c>
@@ -24232,7 +24230,7 @@
         <v>0.871416211</v>
       </c>
     </row>
-    <row r="637" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>1246</v>
       </c>
@@ -24258,7 +24256,7 @@
         <v>0.93916875099999997</v>
       </c>
     </row>
-    <row r="638" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1248</v>
       </c>
@@ -24284,7 +24282,7 @@
         <v>0.60432231400000003</v>
       </c>
     </row>
-    <row r="639" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1250</v>
       </c>
@@ -24310,7 +24308,7 @@
         <v>0.83026695299999997</v>
       </c>
     </row>
-    <row r="640" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>1252</v>
       </c>
@@ -24336,7 +24334,7 @@
         <v>0.66882765300000002</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1254</v>
       </c>
@@ -24362,7 +24360,7 @@
         <v>0.67778539699999996</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1256</v>
       </c>
@@ -24388,7 +24386,7 @@
         <v>0.72279506900000001</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1258</v>
       </c>
@@ -24414,7 +24412,7 @@
         <v>0.81709790199999999</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1260</v>
       </c>
@@ -24440,7 +24438,7 @@
         <v>0.81517940799999999</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1262</v>
       </c>
@@ -24466,7 +24464,7 @@
         <v>0.67541652900000004</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1264</v>
       </c>
@@ -24492,7 +24490,7 @@
         <v>0.66176599300000005</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1266</v>
       </c>
@@ -24518,7 +24516,7 @@
         <v>0.64318251599999998</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>1268</v>
       </c>
@@ -24544,7 +24542,7 @@
         <v>0.75695508700000003</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1270</v>
       </c>
@@ -24570,7 +24568,7 @@
         <v>0.72622788000000005</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1272</v>
       </c>
@@ -24596,7 +24594,7 @@
         <v>0.87790465399999995</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>1274</v>
       </c>
@@ -24622,7 +24620,7 @@
         <v>0.83076751199999999</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>1276</v>
       </c>
@@ -24648,7 +24646,7 @@
         <v>0.504485607</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>1278</v>
       </c>
@@ -24674,7 +24672,7 @@
         <v>0.60568344600000001</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1280</v>
       </c>
@@ -24700,7 +24698,7 @@
         <v>0.93774747800000002</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1282</v>
       </c>
@@ -24726,7 +24724,7 @@
         <v>0.82668125599999998</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1284</v>
       </c>
@@ -24752,7 +24750,7 @@
         <v>0.87484848500000001</v>
       </c>
     </row>
-    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1286</v>
       </c>
@@ -24778,7 +24776,7 @@
         <v>0.84754163000000005</v>
       </c>
     </row>
-    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1288</v>
       </c>
@@ -24804,7 +24802,7 @@
         <v>0.68105924100000004</v>
       </c>
     </row>
-    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1290</v>
       </c>
@@ -24830,7 +24828,7 @@
         <v>0.83939450999999998</v>
       </c>
     </row>
-    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1292</v>
       </c>
@@ -24856,7 +24854,7 @@
         <v>0.96678924600000005</v>
       </c>
     </row>
-    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1294</v>
       </c>
@@ -24888,7 +24886,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1296</v>
       </c>
@@ -24914,7 +24912,7 @@
         <v>0.62314724899999996</v>
       </c>
     </row>
-    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1298</v>
       </c>
@@ -24940,7 +24938,7 @@
         <v>0.80749797800000001</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>1300</v>
       </c>
@@ -24966,7 +24964,7 @@
         <v>0.74299901700000004</v>
       </c>
     </row>
-    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1302</v>
       </c>
@@ -24992,7 +24990,7 @@
         <v>0.90238356600000003</v>
       </c>
     </row>
-    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1304</v>
       </c>
@@ -25018,7 +25016,7 @@
         <v>0.78224366899999997</v>
       </c>
     </row>
-    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1306</v>
       </c>
@@ -25044,7 +25042,7 @@
         <v>0.85069030499999998</v>
       </c>
     </row>
-    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1308</v>
       </c>
@@ -25070,7 +25068,7 @@
         <v>0.768034518</v>
       </c>
     </row>
-    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
         <v>1310</v>
       </c>
@@ -25096,7 +25094,7 @@
         <v>0.76980274900000001</v>
       </c>
     </row>
-    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1312</v>
       </c>
@@ -25122,7 +25120,7 @@
         <v>0.96017551400000001</v>
       </c>
     </row>
-    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1314</v>
       </c>
@@ -25148,7 +25146,7 @@
         <v>0.81261372600000004</v>
       </c>
     </row>
-    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1316</v>
       </c>
@@ -25174,7 +25172,7 @@
         <v>0.86834371099999996</v>
       </c>
     </row>
-    <row r="673" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>1318</v>
       </c>
@@ -25200,7 +25198,7 @@
         <v>0.77908837799999997</v>
       </c>
     </row>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1320</v>
       </c>
@@ -25226,7 +25224,7 @@
         <v>0.90279072500000002</v>
       </c>
     </row>
-    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1322</v>
       </c>
@@ -25252,7 +25250,7 @@
         <v>0.67695105099999997</v>
       </c>
     </row>
-    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1324</v>
       </c>
@@ -25278,7 +25276,7 @@
         <v>0.95303565300000004</v>
       </c>
     </row>
-    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1326</v>
       </c>
@@ -25304,7 +25302,7 @@
         <v>0.80000519800000003</v>
       </c>
     </row>
-    <row r="678" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>1328</v>
       </c>
@@ -25330,7 +25328,7 @@
         <v>0.82186645300000005</v>
       </c>
     </row>
-    <row r="679" spans="1:10" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>1330</v>
       </c>
@@ -25356,7 +25354,7 @@
         <v>0.658461034</v>
       </c>
     </row>
-    <row r="680" spans="1:10" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" ht="375" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>1332</v>
       </c>
@@ -25382,7 +25380,7 @@
         <v>0.77814412099999997</v>
       </c>
     </row>
-    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1334</v>
       </c>
@@ -25408,7 +25406,7 @@
         <v>0.963433027</v>
       </c>
     </row>
-    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1336</v>
       </c>
@@ -25434,7 +25432,7 @@
         <v>0.68436533200000005</v>
       </c>
     </row>
-    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1338</v>
       </c>
@@ -25460,7 +25458,7 @@
         <v>0.81755447400000003</v>
       </c>
     </row>
-    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1340</v>
       </c>
@@ -25486,7 +25484,7 @@
         <v>0.77172720400000006</v>
       </c>
     </row>
-    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1342</v>
       </c>
@@ -25512,7 +25510,7 @@
         <v>0.84567314400000004</v>
       </c>
     </row>
-    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1344</v>
       </c>
@@ -25544,7 +25542,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1346</v>
       </c>
@@ -25570,7 +25568,7 @@
         <v>0.59795820700000002</v>
       </c>
     </row>
-    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1348</v>
       </c>
@@ -25596,7 +25594,7 @@
         <v>0.85928165899999998</v>
       </c>
     </row>
-    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1350</v>
       </c>
@@ -25625,7 +25623,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="690" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>1352</v>
       </c>
@@ -25651,7 +25649,7 @@
         <v>0.52193558200000001</v>
       </c>
     </row>
-    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1354</v>
       </c>
@@ -25677,7 +25675,7 @@
         <v>0.85910189199999998</v>
       </c>
     </row>
-    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1356</v>
       </c>
@@ -25703,7 +25701,7 @@
         <v>0.59759926799999996</v>
       </c>
     </row>
-    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1358</v>
       </c>
@@ -25729,7 +25727,7 @@
         <v>0.85379290600000002</v>
       </c>
     </row>
-    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1360</v>
       </c>
@@ -25755,7 +25753,7 @@
         <v>0.71107596200000001</v>
       </c>
     </row>
-    <row r="695" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>1362</v>
       </c>
@@ -25807,7 +25805,7 @@
         <v>0.58059096300000002</v>
       </c>
     </row>
-    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1366</v>
       </c>
@@ -25833,7 +25831,7 @@
         <v>0.58489590899999999</v>
       </c>
     </row>
-    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1368</v>
       </c>
@@ -25859,7 +25857,7 @@
         <v>0.85554796499999997</v>
       </c>
     </row>
-    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1370</v>
       </c>
@@ -25885,7 +25883,7 @@
         <v>0.85600948300000002</v>
       </c>
     </row>
-    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1372</v>
       </c>
@@ -25911,7 +25909,7 @@
         <v>0.50308471899999996</v>
       </c>
     </row>
-    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1374</v>
       </c>
@@ -25937,7 +25935,7 @@
         <v>0.61322468500000005</v>
       </c>
     </row>
-    <row r="702" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>1376</v>
       </c>
@@ -25963,7 +25961,7 @@
         <v>0.73110848699999997</v>
       </c>
     </row>
-    <row r="703" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>1378</v>
       </c>
@@ -25989,7 +25987,7 @@
         <v>0.86959516999999997</v>
       </c>
     </row>
-    <row r="704" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>1380</v>
       </c>
@@ -26015,7 +26013,7 @@
         <v>0.93044269099999999</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1382</v>
       </c>
@@ -26041,7 +26039,7 @@
         <v>0.68600320800000003</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1384</v>
       </c>
@@ -26067,7 +26065,7 @@
         <v>0.82233118999999999</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1386</v>
       </c>
@@ -26093,7 +26091,7 @@
         <v>0.50593328500000001</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1388</v>
       </c>
@@ -26119,7 +26117,7 @@
         <v>0.83787840599999996</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1390</v>
       </c>
@@ -26145,7 +26143,7 @@
         <v>0.82284510099999997</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>1392</v>
       </c>
@@ -26171,7 +26169,7 @@
         <v>0.93582975899999998</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1394</v>
       </c>
@@ -26223,7 +26221,7 @@
         <v>0.54408311799999998</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1398</v>
       </c>
@@ -26249,7 +26247,7 @@
         <v>0.81711584299999995</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1400</v>
       </c>
@@ -26275,7 +26273,7 @@
         <v>0.73982870599999995</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1402</v>
       </c>
@@ -26301,7 +26299,7 @@
         <v>0.91885691899999999</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1404</v>
       </c>
@@ -26353,7 +26351,7 @@
         <v>0.78296184499999999</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>1408</v>
       </c>
@@ -26379,7 +26377,7 @@
         <v>0.80169939999999995</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>1410</v>
       </c>
@@ -26405,7 +26403,7 @@
         <v>0.90645140400000002</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1412</v>
       </c>
@@ -26457,7 +26455,7 @@
         <v>0.78701573599999997</v>
       </c>
     </row>
-    <row r="722" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>1416</v>
       </c>
@@ -26483,7 +26481,7 @@
         <v>0.96689218300000002</v>
       </c>
     </row>
-    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1418</v>
       </c>
@@ -26509,7 +26507,7 @@
         <v>0.72741043599999999</v>
       </c>
     </row>
-    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1420</v>
       </c>
@@ -26535,7 +26533,7 @@
         <v>0.89676189399999995</v>
       </c>
     </row>
-    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1422</v>
       </c>
@@ -26561,7 +26559,7 @@
         <v>0.810074925</v>
       </c>
     </row>
-    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1424</v>
       </c>
@@ -26587,7 +26585,7 @@
         <v>0.74213808800000003</v>
       </c>
     </row>
-    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1426</v>
       </c>
@@ -26613,7 +26611,7 @@
         <v>0.532453179</v>
       </c>
     </row>
-    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1428</v>
       </c>
@@ -26639,7 +26637,7 @@
         <v>0.556757748</v>
       </c>
     </row>
-    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1430</v>
       </c>
@@ -26671,7 +26669,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="730" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>1432</v>
       </c>
@@ -26697,7 +26695,7 @@
         <v>0.84707164800000001</v>
       </c>
     </row>
-    <row r="731" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>1434</v>
       </c>
@@ -26723,7 +26721,7 @@
         <v>0.66253286600000005</v>
       </c>
     </row>
-    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1436</v>
       </c>
@@ -26749,7 +26747,7 @@
         <v>0.59224653199999999</v>
       </c>
     </row>
-    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1438</v>
       </c>
@@ -26775,7 +26773,7 @@
         <v>0.57448852100000003</v>
       </c>
     </row>
-    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
         <v>1440</v>
       </c>
@@ -26807,7 +26805,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="735" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>1442</v>
       </c>
@@ -26833,7 +26831,7 @@
         <v>0.75071024900000005</v>
       </c>
     </row>
-    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1444</v>
       </c>
@@ -26859,7 +26857,7 @@
         <v>0.81949734699999999</v>
       </c>
     </row>
-    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1446</v>
       </c>
@@ -26885,7 +26883,7 @@
         <v>0.93478077699999995</v>
       </c>
     </row>
-    <row r="738" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1448</v>
       </c>
@@ -26911,7 +26909,7 @@
         <v>0.67820274800000002</v>
       </c>
     </row>
-    <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1450</v>
       </c>
@@ -26937,7 +26935,7 @@
         <v>0.80187195499999997</v>
       </c>
     </row>
-    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1452</v>
       </c>
@@ -26963,7 +26961,7 @@
         <v>0.81839698599999999</v>
       </c>
     </row>
-    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1454</v>
       </c>
@@ -26989,7 +26987,7 @@
         <v>0.96243697399999995</v>
       </c>
     </row>
-    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1456</v>
       </c>
@@ -27015,7 +27013,7 @@
         <v>0.94988530900000001</v>
       </c>
     </row>
-    <row r="743" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1458</v>
       </c>
@@ -27050,7 +27048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="744" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1460</v>
       </c>
@@ -27076,7 +27074,7 @@
         <v>0.75939625499999996</v>
       </c>
     </row>
-    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1462</v>
       </c>
@@ -27102,7 +27100,7 @@
         <v>0.878973067</v>
       </c>
     </row>
-    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1464</v>
       </c>
@@ -27128,7 +27126,7 @@
         <v>0.70739615</v>
       </c>
     </row>
-    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1466</v>
       </c>
@@ -27154,7 +27152,7 @@
         <v>0.86642319000000001</v>
       </c>
     </row>
-    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1468</v>
       </c>
@@ -27180,7 +27178,7 @@
         <v>0.57042247099999999</v>
       </c>
     </row>
-    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1470</v>
       </c>
@@ -27206,7 +27204,7 @@
         <v>0.62435001099999998</v>
       </c>
     </row>
-    <row r="750" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1472</v>
       </c>
@@ -27241,7 +27239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="751" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1474</v>
       </c>
@@ -27267,7 +27265,7 @@
         <v>0.74812096400000005</v>
       </c>
     </row>
-    <row r="752" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>1476</v>
       </c>
@@ -27293,7 +27291,7 @@
         <v>0.57422000200000001</v>
       </c>
     </row>
-    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1478</v>
       </c>
@@ -27319,7 +27317,7 @@
         <v>0.51649141300000001</v>
       </c>
     </row>
-    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1480</v>
       </c>
@@ -27345,7 +27343,7 @@
         <v>0.69687026699999999</v>
       </c>
     </row>
-    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1482</v>
       </c>
@@ -27371,7 +27369,7 @@
         <v>0.82725948100000002</v>
       </c>
     </row>
-    <row r="756" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>1484</v>
       </c>
@@ -27397,7 +27395,7 @@
         <v>0.67126488699999998</v>
       </c>
     </row>
-    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1486</v>
       </c>
@@ -27423,7 +27421,7 @@
         <v>0.95476502200000002</v>
       </c>
     </row>
-    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1488</v>
       </c>
@@ -27449,7 +27447,7 @@
         <v>0.90412640600000005</v>
       </c>
     </row>
-    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1490</v>
       </c>
@@ -27475,7 +27473,7 @@
         <v>0.89317768799999997</v>
       </c>
     </row>
-    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1492</v>
       </c>
@@ -27501,7 +27499,7 @@
         <v>0.72955131500000003</v>
       </c>
     </row>
-    <row r="761" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>1494</v>
       </c>
@@ -27527,7 +27525,7 @@
         <v>0.60432439999999998</v>
       </c>
     </row>
-    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1496</v>
       </c>
@@ -27553,7 +27551,7 @@
         <v>0.75397050399999999</v>
       </c>
     </row>
-    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1498</v>
       </c>
@@ -27579,7 +27577,7 @@
         <v>0.91476237800000004</v>
       </c>
     </row>
-    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1500</v>
       </c>
@@ -27605,7 +27603,7 @@
         <v>0.74443077999999996</v>
       </c>
     </row>
-    <row r="765" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>1502</v>
       </c>
@@ -27631,7 +27629,7 @@
         <v>0.52473020599999998</v>
       </c>
     </row>
-    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1504</v>
       </c>
@@ -27657,7 +27655,7 @@
         <v>0.91946953499999995</v>
       </c>
     </row>
-    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1506</v>
       </c>
@@ -27683,7 +27681,7 @@
         <v>0.91797369699999998</v>
       </c>
     </row>
-    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1508</v>
       </c>
@@ -27709,7 +27707,7 @@
         <v>0.51206541100000003</v>
       </c>
     </row>
-    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1510</v>
       </c>
@@ -27735,7 +27733,7 @@
         <v>0.70716768500000005</v>
       </c>
     </row>
-    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1512</v>
       </c>
@@ -27761,7 +27759,7 @@
         <v>0.67787218100000002</v>
       </c>
     </row>
-    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1514</v>
       </c>
@@ -27787,7 +27785,7 @@
         <v>0.68789112600000002</v>
       </c>
     </row>
-    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1516</v>
       </c>
@@ -27819,7 +27817,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="773" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>1518</v>
       </c>
@@ -27845,7 +27843,7 @@
         <v>0.54628241099999997</v>
       </c>
     </row>
-    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1520</v>
       </c>
@@ -27871,7 +27869,7 @@
         <v>0.92499744900000003</v>
       </c>
     </row>
-    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1522</v>
       </c>
@@ -27897,7 +27895,7 @@
         <v>0.77315342399999998</v>
       </c>
     </row>
-    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1524</v>
       </c>
@@ -27923,7 +27921,7 @@
         <v>0.57531547500000002</v>
       </c>
     </row>
-    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1526</v>
       </c>
@@ -27949,7 +27947,7 @@
         <v>0.88394629999999996</v>
       </c>
     </row>
-    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1528</v>
       </c>
@@ -27975,7 +27973,7 @@
         <v>0.90238583100000003</v>
       </c>
     </row>
-    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1530</v>
       </c>
@@ -28001,7 +27999,7 @@
         <v>0.64131373199999997</v>
       </c>
     </row>
-    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1532</v>
       </c>
@@ -28027,7 +28025,7 @@
         <v>0.87907648100000002</v>
       </c>
     </row>
-    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A781" s="3" t="s">
         <v>1534</v>
       </c>
@@ -28053,7 +28051,7 @@
         <v>0.66403383000000005</v>
       </c>
     </row>
-    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1536</v>
       </c>
@@ -28079,7 +28077,7 @@
         <v>0.58589530000000001</v>
       </c>
     </row>
-    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1538</v>
       </c>
@@ -28105,7 +28103,7 @@
         <v>0.69234585800000004</v>
       </c>
     </row>
-    <row r="784" spans="1:10" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
         <v>1540</v>
       </c>
@@ -28131,7 +28129,7 @@
         <v>0.90343982</v>
       </c>
     </row>
-    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1542</v>
       </c>
@@ -28157,7 +28155,7 @@
         <v>0.66014438900000005</v>
       </c>
     </row>
-    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1544</v>
       </c>
@@ -28183,7 +28181,7 @@
         <v>0.698338032</v>
       </c>
     </row>
-    <row r="787" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>1546</v>
       </c>
@@ -28209,7 +28207,7 @@
         <v>0.92051512000000002</v>
       </c>
     </row>
-    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>1548</v>
       </c>
@@ -28235,7 +28233,7 @@
         <v>0.82959282400000001</v>
       </c>
     </row>
-    <row r="789" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>1550</v>
       </c>
@@ -28261,7 +28259,7 @@
         <v>0.65475547300000003</v>
       </c>
     </row>
-    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1552</v>
       </c>
@@ -28287,7 +28285,7 @@
         <v>0.789578259</v>
       </c>
     </row>
-    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1554</v>
       </c>
@@ -28313,7 +28311,7 @@
         <v>0.60592609600000003</v>
       </c>
     </row>
-    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1556</v>
       </c>
@@ -28339,7 +28337,7 @@
         <v>0.50045859800000003</v>
       </c>
     </row>
-    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>1558</v>
       </c>
@@ -28365,7 +28363,7 @@
         <v>0.58974260099999998</v>
       </c>
     </row>
-    <row r="794" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>1560</v>
       </c>
@@ -28391,7 +28389,7 @@
         <v>0.58769363200000002</v>
       </c>
     </row>
-    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>1562</v>
       </c>
@@ -28417,7 +28415,7 @@
         <v>0.76627135300000004</v>
       </c>
     </row>
-    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1564</v>
       </c>
@@ -28443,7 +28441,7 @@
         <v>0.67778450300000004</v>
       </c>
     </row>
-    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1566</v>
       </c>
@@ -28495,7 +28493,7 @@
         <v>0.91068327400000004</v>
       </c>
     </row>
-    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>1570</v>
       </c>
@@ -28521,7 +28519,7 @@
         <v>0.85011500100000004</v>
       </c>
     </row>
-    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>1572</v>
       </c>
@@ -28547,7 +28545,7 @@
         <v>0.80338197899999997</v>
       </c>
     </row>
-    <row r="801" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>1574</v>
       </c>
@@ -28573,7 +28571,7 @@
         <v>0.71008271000000001</v>
       </c>
     </row>
-    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1576</v>
       </c>
@@ -28599,7 +28597,7 @@
         <v>0.52689164899999996</v>
       </c>
     </row>
-    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1578</v>
       </c>
@@ -28625,7 +28623,7 @@
         <v>0.54364174600000004</v>
       </c>
     </row>
-    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1580</v>
       </c>
@@ -28651,7 +28649,7 @@
         <v>0.85807335399999995</v>
       </c>
     </row>
-    <row r="805" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>1582</v>
       </c>
@@ -28677,7 +28675,7 @@
         <v>0.825411797</v>
       </c>
     </row>
-    <row r="806" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>1584</v>
       </c>
@@ -28703,7 +28701,7 @@
         <v>0.76778429699999995</v>
       </c>
     </row>
-    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1586</v>
       </c>
@@ -28729,7 +28727,7 @@
         <v>0.65940213199999997</v>
       </c>
     </row>
-    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1588</v>
       </c>
@@ -28755,7 +28753,7 @@
         <v>0.60667490999999996</v>
       </c>
     </row>
-    <row r="809" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>1590</v>
       </c>
@@ -28781,7 +28779,7 @@
         <v>0.69862729300000004</v>
       </c>
     </row>
-    <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1592</v>
       </c>
@@ -28807,7 +28805,7 @@
         <v>0.63596945999999999</v>
       </c>
     </row>
-    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1594</v>
       </c>
@@ -28833,7 +28831,7 @@
         <v>0.59662693700000002</v>
       </c>
     </row>
-    <row r="812" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1596</v>
       </c>
@@ -28859,7 +28857,7 @@
         <v>0.82982760700000002</v>
       </c>
     </row>
-    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1598</v>
       </c>
@@ -28885,7 +28883,7 @@
         <v>0.75919956</v>
       </c>
     </row>
-    <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>1600</v>
       </c>
@@ -28911,7 +28909,7 @@
         <v>0.67743372899999998</v>
       </c>
     </row>
-    <row r="815" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>1602</v>
       </c>
@@ -28937,7 +28935,7 @@
         <v>0.93743121600000001</v>
       </c>
     </row>
-    <row r="816" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>1604</v>
       </c>
@@ -28963,7 +28961,7 @@
         <v>0.69034784999999999</v>
       </c>
     </row>
-    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>1606</v>
       </c>
@@ -28989,7 +28987,7 @@
         <v>0.91752636399999998</v>
       </c>
     </row>
-    <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>1608</v>
       </c>
@@ -29041,7 +29039,7 @@
         <v>0.64975631199999995</v>
       </c>
     </row>
-    <row r="820" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
         <v>1612</v>
       </c>
@@ -29067,7 +29065,7 @@
         <v>0.87843632699999996</v>
       </c>
     </row>
-    <row r="821" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>1614</v>
       </c>
@@ -29093,7 +29091,7 @@
         <v>0.76196211599999997</v>
       </c>
     </row>
-    <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>1616</v>
       </c>
@@ -29119,7 +29117,7 @@
         <v>0.78141272100000003</v>
       </c>
     </row>
-    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>1618</v>
       </c>
@@ -29145,7 +29143,7 @@
         <v>0.86302995699999996</v>
       </c>
     </row>
-    <row r="824" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>1620</v>
       </c>
@@ -29171,7 +29169,7 @@
         <v>0.85053557199999996</v>
       </c>
     </row>
-    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1622</v>
       </c>
@@ -29197,7 +29195,7 @@
         <v>0.66491407199999997</v>
       </c>
     </row>
-    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>1624</v>
       </c>
@@ -29223,7 +29221,7 @@
         <v>0.846535861</v>
       </c>
     </row>
-    <row r="827" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>1626</v>
       </c>
@@ -29249,7 +29247,7 @@
         <v>0.54168760800000004</v>
       </c>
     </row>
-    <row r="828" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>1628</v>
       </c>
@@ -29275,7 +29273,7 @@
         <v>0.65036892899999998</v>
       </c>
     </row>
-    <row r="829" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>1630</v>
       </c>
@@ -29301,7 +29299,7 @@
         <v>0.86429673399999996</v>
       </c>
     </row>
-    <row r="830" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>1632</v>
       </c>
@@ -29327,7 +29325,7 @@
         <v>0.84072071299999995</v>
       </c>
     </row>
-    <row r="831" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1634</v>
       </c>
@@ -29353,7 +29351,7 @@
         <v>0.56878781300000003</v>
       </c>
     </row>
-    <row r="832" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>1636</v>
       </c>
@@ -29379,7 +29377,7 @@
         <v>0.76740598699999996</v>
       </c>
     </row>
-    <row r="833" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1638</v>
       </c>
@@ -29405,7 +29403,7 @@
         <v>0.67594319599999997</v>
       </c>
     </row>
-    <row r="834" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
         <v>1640</v>
       </c>
@@ -29431,7 +29429,7 @@
         <v>0.64093154699999999</v>
       </c>
     </row>
-    <row r="835" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1642</v>
       </c>
@@ -29457,7 +29455,7 @@
         <v>0.59996825499999995</v>
       </c>
     </row>
-    <row r="836" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
         <v>1644</v>
       </c>
@@ -29483,7 +29481,7 @@
         <v>0.61689585400000002</v>
       </c>
     </row>
-    <row r="837" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
         <v>1646</v>
       </c>
@@ -29509,7 +29507,7 @@
         <v>0.73548138100000005</v>
       </c>
     </row>
-    <row r="838" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>1648</v>
       </c>
@@ -29535,7 +29533,7 @@
         <v>0.89560925999999996</v>
       </c>
     </row>
-    <row r="839" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1650</v>
       </c>
@@ -29587,7 +29585,7 @@
         <v>0.71616738999999996</v>
       </c>
     </row>
-    <row r="841" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1654</v>
       </c>
@@ -29613,7 +29611,7 @@
         <v>0.90249520500000002</v>
       </c>
     </row>
-    <row r="842" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>1656</v>
       </c>
@@ -29639,7 +29637,7 @@
         <v>0.90779143600000001</v>
       </c>
     </row>
-    <row r="843" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>1658</v>
       </c>
@@ -29665,7 +29663,7 @@
         <v>0.54654866499999999</v>
       </c>
     </row>
-    <row r="844" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>1660</v>
       </c>
@@ -29691,7 +29689,7 @@
         <v>0.62054401599999998</v>
       </c>
     </row>
-    <row r="845" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>1662</v>
       </c>
@@ -29717,7 +29715,7 @@
         <v>0.73418718599999999</v>
       </c>
     </row>
-    <row r="846" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>1664</v>
       </c>
@@ -29743,7 +29741,7 @@
         <v>0.69446450500000001</v>
       </c>
     </row>
-    <row r="847" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>1666</v>
       </c>
@@ -29769,7 +29767,7 @@
         <v>0.90319585800000002</v>
       </c>
     </row>
-    <row r="848" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>1668</v>
       </c>
@@ -29795,7 +29793,7 @@
         <v>0.95893353199999998</v>
       </c>
     </row>
-    <row r="849" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>1670</v>
       </c>
@@ -29821,7 +29819,7 @@
         <v>0.90854537499999999</v>
       </c>
     </row>
-    <row r="850" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>1672</v>
       </c>
@@ -29847,7 +29845,7 @@
         <v>0.64698821299999998</v>
       </c>
     </row>
-    <row r="851" spans="1:8" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>1674</v>
       </c>
@@ -29873,7 +29871,7 @@
         <v>0.69378602499999997</v>
       </c>
     </row>
-    <row r="852" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>1676</v>
       </c>
@@ -29899,7 +29897,7 @@
         <v>0.65233349799999996</v>
       </c>
     </row>
-    <row r="853" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>1678</v>
       </c>
@@ -29925,7 +29923,7 @@
         <v>0.85569208900000004</v>
       </c>
     </row>
-    <row r="854" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>1680</v>
       </c>
@@ -29951,7 +29949,7 @@
         <v>0.78563231200000005</v>
       </c>
     </row>
-    <row r="855" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>1682</v>
       </c>
@@ -29977,7 +29975,7 @@
         <v>0.83495670600000005</v>
       </c>
     </row>
-    <row r="856" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>1684</v>
       </c>
@@ -30003,7 +30001,7 @@
         <v>0.53857332499999999</v>
       </c>
     </row>
-    <row r="857" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>1686</v>
       </c>
@@ -30029,7 +30027,7 @@
         <v>0.77925771499999996</v>
       </c>
     </row>
-    <row r="858" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>1688</v>
       </c>
@@ -30055,7 +30053,7 @@
         <v>0.80465352499999998</v>
       </c>
     </row>
-    <row r="859" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>1690</v>
       </c>
@@ -30081,7 +30079,7 @@
         <v>0.83967316199999997</v>
       </c>
     </row>
-    <row r="860" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>1692</v>
       </c>
@@ -30107,7 +30105,7 @@
         <v>0.68534302700000005</v>
       </c>
     </row>
-    <row r="861" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>1694</v>
       </c>
@@ -30133,7 +30131,7 @@
         <v>0.95718312299999997</v>
       </c>
     </row>
-    <row r="862" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>1696</v>
       </c>
@@ -30159,7 +30157,7 @@
         <v>0.57546830199999999</v>
       </c>
     </row>
-    <row r="863" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>1698</v>
       </c>
@@ -30185,7 +30183,7 @@
         <v>0.79005140100000004</v>
       </c>
     </row>
-    <row r="864" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>1700</v>
       </c>
@@ -30211,7 +30209,7 @@
         <v>0.77616715400000003</v>
       </c>
     </row>
-    <row r="865" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>1702</v>
       </c>
@@ -30237,7 +30235,7 @@
         <v>0.85227334499999996</v>
       </c>
     </row>
-    <row r="866" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>1704</v>
       </c>
@@ -30263,7 +30261,7 @@
         <v>0.74851489100000002</v>
       </c>
     </row>
-    <row r="867" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>1706</v>
       </c>
@@ -30292,7 +30290,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="868" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>1708</v>
       </c>
@@ -30318,7 +30316,7 @@
         <v>0.54163181800000004</v>
       </c>
     </row>
-    <row r="869" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>1710</v>
       </c>
@@ -30344,7 +30342,7 @@
         <v>0.62639701400000003</v>
       </c>
     </row>
-    <row r="870" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A870" s="3" t="s">
         <v>1712</v>
       </c>
@@ -30370,7 +30368,7 @@
         <v>0.79276752500000003</v>
       </c>
     </row>
-    <row r="871" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>1714</v>
       </c>
@@ -30396,7 +30394,7 @@
         <v>0.78289490900000003</v>
       </c>
     </row>
-    <row r="872" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>1716</v>
       </c>
@@ -30422,7 +30420,7 @@
         <v>0.64647001000000004</v>
       </c>
     </row>
-    <row r="873" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>1718</v>
       </c>
@@ -30448,7 +30446,7 @@
         <v>0.89620316</v>
       </c>
     </row>
-    <row r="874" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>1720</v>
       </c>
@@ -30474,7 +30472,7 @@
         <v>0.85020703099999995</v>
       </c>
     </row>
-    <row r="875" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>1722</v>
       </c>
@@ -30500,7 +30498,7 @@
         <v>0.71736341699999995</v>
       </c>
     </row>
-    <row r="876" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
         <v>1724</v>
       </c>
@@ -30526,7 +30524,7 @@
         <v>0.87070751199999996</v>
       </c>
     </row>
-    <row r="877" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>1726</v>
       </c>
@@ -30552,7 +30550,7 @@
         <v>0.900073707</v>
       </c>
     </row>
-    <row r="878" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
         <v>1728</v>
       </c>
@@ -30578,7 +30576,7 @@
         <v>0.88340294399999997</v>
       </c>
     </row>
-    <row r="879" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>1730</v>
       </c>
@@ -30604,7 +30602,7 @@
         <v>0.88790667099999998</v>
       </c>
     </row>
-    <row r="880" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>1732</v>
       </c>
@@ -30630,7 +30628,7 @@
         <v>0.64952802700000001</v>
       </c>
     </row>
-    <row r="881" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>1734</v>
       </c>
@@ -30656,7 +30654,7 @@
         <v>0.51279187199999998</v>
       </c>
     </row>
-    <row r="882" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>1736</v>
       </c>
@@ -30682,7 +30680,7 @@
         <v>0.75555294799999995</v>
       </c>
     </row>
-    <row r="883" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>1738</v>
       </c>
@@ -30708,7 +30706,7 @@
         <v>0.89631855500000002</v>
       </c>
     </row>
-    <row r="884" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A884" s="3" t="s">
         <v>1740</v>
       </c>
@@ -30734,7 +30732,7 @@
         <v>0.66569328299999997</v>
       </c>
     </row>
-    <row r="885" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>1742</v>
       </c>
@@ -30760,7 +30758,7 @@
         <v>0.90277922200000005</v>
       </c>
     </row>
-    <row r="886" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>1744</v>
       </c>
@@ -30786,7 +30784,7 @@
         <v>0.75527417699999999</v>
       </c>
     </row>
-    <row r="887" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
         <v>1746</v>
       </c>
@@ -30812,7 +30810,7 @@
         <v>0.65269386799999995</v>
       </c>
     </row>
-    <row r="888" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>1748</v>
       </c>
@@ -30838,7 +30836,7 @@
         <v>0.90083122299999996</v>
       </c>
     </row>
-    <row r="889" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>1750</v>
       </c>
@@ -30864,7 +30862,7 @@
         <v>0.80442190199999997</v>
       </c>
     </row>
-    <row r="890" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>1752</v>
       </c>
@@ -30890,7 +30888,7 @@
         <v>0.89160609199999996</v>
       </c>
     </row>
-    <row r="891" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>1754</v>
       </c>
@@ -30916,7 +30914,7 @@
         <v>0.84957784400000003</v>
       </c>
     </row>
-    <row r="892" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>1756</v>
       </c>
@@ -30942,7 +30940,7 @@
         <v>0.55108308800000005</v>
       </c>
     </row>
-    <row r="893" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>1758</v>
       </c>
@@ -30968,7 +30966,7 @@
         <v>0.66789090600000001</v>
       </c>
     </row>
-    <row r="894" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>1760</v>
       </c>
@@ -30994,7 +30992,7 @@
         <v>0.50611037000000003</v>
       </c>
     </row>
-    <row r="895" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>1762</v>
       </c>
@@ -31020,7 +31018,7 @@
         <v>0.76100784499999996</v>
       </c>
     </row>
-    <row r="896" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>1764</v>
       </c>
@@ -31046,7 +31044,7 @@
         <v>0.54180973799999999</v>
       </c>
     </row>
-    <row r="897" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>1766</v>
       </c>
@@ -31072,7 +31070,7 @@
         <v>0.75856685599999996</v>
       </c>
     </row>
-    <row r="898" spans="1:8" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>1768</v>
       </c>
@@ -31098,7 +31096,7 @@
         <v>0.61337077600000001</v>
       </c>
     </row>
-    <row r="899" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>1770</v>
       </c>
@@ -31124,7 +31122,7 @@
         <v>0.94380015100000003</v>
       </c>
     </row>
-    <row r="900" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>1772</v>
       </c>
@@ -31150,7 +31148,7 @@
         <v>0.70541054000000003</v>
       </c>
     </row>
-    <row r="901" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>1774</v>
       </c>
@@ -31176,7 +31174,7 @@
         <v>0.68774676300000004</v>
       </c>
     </row>
-    <row r="902" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>1776</v>
       </c>
@@ -31202,7 +31200,7 @@
         <v>0.69394493099999999</v>
       </c>
     </row>
-    <row r="903" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>1778</v>
       </c>
@@ -31228,7 +31226,7 @@
         <v>0.95249784000000004</v>
       </c>
     </row>
-    <row r="904" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>1780</v>
       </c>
@@ -31254,7 +31252,7 @@
         <v>0.64233052700000004</v>
       </c>
     </row>
-    <row r="905" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>1782</v>
       </c>
@@ -31280,7 +31278,7 @@
         <v>0.78546470400000001</v>
       </c>
     </row>
-    <row r="906" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
         <v>1784</v>
       </c>
@@ -31306,7 +31304,7 @@
         <v>0.56038409499999997</v>
       </c>
     </row>
-    <row r="907" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>1786</v>
       </c>
@@ -31332,7 +31330,7 @@
         <v>0.87507128700000003</v>
       </c>
     </row>
-    <row r="908" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>1788</v>
       </c>
@@ -31358,7 +31356,7 @@
         <v>0.85094821499999995</v>
       </c>
     </row>
-    <row r="909" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
         <v>1790</v>
       </c>
@@ -31384,7 +31382,7 @@
         <v>0.90126699200000004</v>
       </c>
     </row>
-    <row r="910" spans="1:8" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
         <v>1792</v>
       </c>
@@ -31410,7 +31408,7 @@
         <v>0.70117366299999995</v>
       </c>
     </row>
-    <row r="911" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>1794</v>
       </c>
@@ -31436,7 +31434,7 @@
         <v>0.73120445000000001</v>
       </c>
     </row>
-    <row r="912" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912" s="3" t="s">
         <v>1796</v>
       </c>
@@ -31462,7 +31460,7 @@
         <v>0.79035395399999997</v>
       </c>
     </row>
-    <row r="913" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
         <v>1798</v>
       </c>
@@ -31488,7 +31486,7 @@
         <v>0.94989234199999995</v>
       </c>
     </row>
-    <row r="914" spans="1:8" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
         <v>1800</v>
       </c>
@@ -31514,7 +31512,7 @@
         <v>0.83119285099999995</v>
       </c>
     </row>
-    <row r="915" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>1802</v>
       </c>
@@ -31540,7 +31538,7 @@
         <v>0.51474499699999998</v>
       </c>
     </row>
-    <row r="916" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
         <v>1804</v>
       </c>
@@ -31566,7 +31564,7 @@
         <v>0.64577937100000005</v>
       </c>
     </row>
-    <row r="917" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>1806</v>
       </c>
@@ -31592,7 +31590,7 @@
         <v>0.62870758800000004</v>
       </c>
     </row>
-    <row r="918" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>1808</v>
       </c>
@@ -31618,7 +31616,7 @@
         <v>0.54693985000000001</v>
       </c>
     </row>
-    <row r="919" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>1810</v>
       </c>
@@ -31644,7 +31642,7 @@
         <v>0.59445333499999997</v>
       </c>
     </row>
-    <row r="920" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>1812</v>
       </c>
@@ -31670,7 +31668,7 @@
         <v>0.78143006599999998</v>
       </c>
     </row>
-    <row r="921" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>1814</v>
       </c>
@@ -31696,7 +31694,7 @@
         <v>0.62483644500000002</v>
       </c>
     </row>
-    <row r="922" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>1816</v>
       </c>
@@ -31722,7 +31720,7 @@
         <v>0.67255544700000003</v>
       </c>
     </row>
-    <row r="923" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>1818</v>
       </c>
@@ -31748,7 +31746,7 @@
         <v>0.61089313000000001</v>
       </c>
     </row>
-    <row r="924" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>1820</v>
       </c>
@@ -31774,7 +31772,7 @@
         <v>0.74127823100000001</v>
       </c>
     </row>
-    <row r="925" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>1822</v>
       </c>
@@ -31800,7 +31798,7 @@
         <v>0.74225872800000003</v>
       </c>
     </row>
-    <row r="926" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
         <v>1824</v>
       </c>
@@ -31826,7 +31824,7 @@
         <v>0.75992274299999996</v>
       </c>
     </row>
-    <row r="927" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>1826</v>
       </c>
@@ -31852,7 +31850,7 @@
         <v>0.85592263899999999</v>
       </c>
     </row>
-    <row r="928" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
         <v>1828</v>
       </c>
@@ -31878,7 +31876,7 @@
         <v>0.681203067</v>
       </c>
     </row>
-    <row r="929" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>1830</v>
       </c>
@@ -31904,7 +31902,7 @@
         <v>0.86000490200000002</v>
       </c>
     </row>
-    <row r="930" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>1832</v>
       </c>
@@ -31930,7 +31928,7 @@
         <v>0.79174894100000004</v>
       </c>
     </row>
-    <row r="931" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>1834</v>
       </c>
@@ -31956,7 +31954,7 @@
         <v>0.63755285699999997</v>
       </c>
     </row>
-    <row r="932" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>1836</v>
       </c>
@@ -31982,7 +31980,7 @@
         <v>0.68427145499999997</v>
       </c>
     </row>
-    <row r="933" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>1838</v>
       </c>
@@ -32008,7 +32006,7 @@
         <v>0.73009854600000001</v>
       </c>
     </row>
-    <row r="934" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>1840</v>
       </c>
@@ -32034,7 +32032,7 @@
         <v>0.80300277499999995</v>
       </c>
     </row>
-    <row r="935" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>1842</v>
       </c>
@@ -32060,7 +32058,7 @@
         <v>0.68625026899999997</v>
       </c>
     </row>
-    <row r="936" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>1844</v>
       </c>
@@ -32086,7 +32084,7 @@
         <v>0.75936716800000004</v>
       </c>
     </row>
-    <row r="937" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>1846</v>
       </c>
@@ -32112,7 +32110,7 @@
         <v>0.88248687999999997</v>
       </c>
     </row>
-    <row r="938" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>1848</v>
       </c>
@@ -32138,7 +32136,7 @@
         <v>0.51730781800000003</v>
       </c>
     </row>
-    <row r="939" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>1850</v>
       </c>
@@ -32164,7 +32162,7 @@
         <v>0.93512082100000005</v>
       </c>
     </row>
-    <row r="940" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>1852</v>
       </c>
@@ -32190,7 +32188,7 @@
         <v>0.86851441900000004</v>
       </c>
     </row>
-    <row r="941" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>1854</v>
       </c>
@@ -32216,7 +32214,7 @@
         <v>0.60069805399999998</v>
       </c>
     </row>
-    <row r="942" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>1856</v>
       </c>
@@ -32242,7 +32240,7 @@
         <v>0.61723214400000004</v>
       </c>
     </row>
-    <row r="943" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>1858</v>
       </c>
@@ -32268,7 +32266,7 @@
         <v>0.92960864300000001</v>
       </c>
     </row>
-    <row r="944" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>1860</v>
       </c>
@@ -32297,7 +32295,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="945" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>1862</v>
       </c>
@@ -32323,7 +32321,7 @@
         <v>0.87597495299999995</v>
       </c>
     </row>
-    <row r="946" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>1864</v>
       </c>
@@ -32349,7 +32347,7 @@
         <v>0.93258154400000004</v>
       </c>
     </row>
-    <row r="947" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>1866</v>
       </c>
@@ -32375,7 +32373,7 @@
         <v>0.815902829</v>
       </c>
     </row>
-    <row r="948" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>1868</v>
       </c>
@@ -32401,7 +32399,7 @@
         <v>0.91739881000000001</v>
       </c>
     </row>
-    <row r="949" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>1870</v>
       </c>
@@ -32427,7 +32425,7 @@
         <v>0.61024951900000002</v>
       </c>
     </row>
-    <row r="950" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>1872</v>
       </c>
@@ -32453,7 +32451,7 @@
         <v>0.73065483600000003</v>
       </c>
     </row>
-    <row r="951" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>1874</v>
       </c>
@@ -32479,7 +32477,7 @@
         <v>0.79156988900000003</v>
       </c>
     </row>
-    <row r="952" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>1876</v>
       </c>
@@ -32505,7 +32503,7 @@
         <v>0.75454020499999996</v>
       </c>
     </row>
-    <row r="953" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>1878</v>
       </c>
@@ -32531,7 +32529,7 @@
         <v>0.81378650699999999</v>
       </c>
     </row>
-    <row r="954" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
         <v>1880</v>
       </c>
@@ -32557,7 +32555,7 @@
         <v>0.78646498899999995</v>
       </c>
     </row>
-    <row r="955" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
         <v>1882</v>
       </c>
@@ -32583,7 +32581,7 @@
         <v>0.75595843799999995</v>
       </c>
     </row>
-    <row r="956" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>1884</v>
       </c>
@@ -32609,7 +32607,7 @@
         <v>0.51878982799999995</v>
       </c>
     </row>
-    <row r="957" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>1886</v>
       </c>
@@ -32635,7 +32633,7 @@
         <v>0.88751184900000002</v>
       </c>
     </row>
-    <row r="958" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>1888</v>
       </c>
@@ -32661,7 +32659,7 @@
         <v>0.57920610900000002</v>
       </c>
     </row>
-    <row r="959" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>1890</v>
       </c>
@@ -32687,7 +32685,7 @@
         <v>0.89388805599999999</v>
       </c>
     </row>
-    <row r="960" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>1892</v>
       </c>
@@ -32713,7 +32711,7 @@
         <v>0.81584030399999996</v>
       </c>
     </row>
-    <row r="961" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>1894</v>
       </c>
@@ -32739,7 +32737,7 @@
         <v>0.80171799700000002</v>
       </c>
     </row>
-    <row r="962" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>1896</v>
       </c>
@@ -32765,7 +32763,7 @@
         <v>0.78287529899999997</v>
       </c>
     </row>
-    <row r="963" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>1898</v>
       </c>
@@ -32791,7 +32789,7 @@
         <v>0.85059302999999997</v>
       </c>
     </row>
-    <row r="964" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>1900</v>
       </c>
@@ -32817,7 +32815,7 @@
         <v>0.65533757199999998</v>
       </c>
     </row>
-    <row r="965" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>1902</v>
       </c>
@@ -32846,7 +32844,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="966" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
         <v>1904</v>
       </c>
@@ -32872,7 +32870,7 @@
         <v>0.72724169500000002</v>
       </c>
     </row>
-    <row r="967" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>1906</v>
       </c>
@@ -32898,7 +32896,7 @@
         <v>0.86515957099999996</v>
       </c>
     </row>
-    <row r="968" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>1908</v>
       </c>
@@ -32924,7 +32922,7 @@
         <v>0.57161593399999999</v>
       </c>
     </row>
-    <row r="969" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>1910</v>
       </c>
@@ -32950,7 +32948,7 @@
         <v>0.73365551200000001</v>
       </c>
     </row>
-    <row r="970" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>1912</v>
       </c>
@@ -32976,7 +32974,7 @@
         <v>0.854680777</v>
       </c>
     </row>
-    <row r="971" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>1914</v>
       </c>
@@ -33002,7 +33000,7 @@
         <v>0.86517482999999995</v>
       </c>
     </row>
-    <row r="972" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>1916</v>
       </c>
@@ -33028,7 +33026,7 @@
         <v>0.52860253999999995</v>
       </c>
     </row>
-    <row r="973" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>1918</v>
       </c>
@@ -33054,7 +33052,7 @@
         <v>0.81876772600000003</v>
       </c>
     </row>
-    <row r="974" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>1920</v>
       </c>
@@ -33080,7 +33078,7 @@
         <v>0.54970216800000005</v>
       </c>
     </row>
-    <row r="975" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>1922</v>
       </c>
@@ -33106,7 +33104,7 @@
         <v>0.84902870699999999</v>
       </c>
     </row>
-    <row r="976" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>1924</v>
       </c>
@@ -33132,7 +33130,7 @@
         <v>0.64542126700000002</v>
       </c>
     </row>
-    <row r="977" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>1926</v>
       </c>
@@ -33158,7 +33156,7 @@
         <v>0.58612161900000004</v>
       </c>
     </row>
-    <row r="978" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
         <v>1927</v>
       </c>
@@ -33184,7 +33182,7 @@
         <v>0.90673524100000003</v>
       </c>
     </row>
-    <row r="979" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>1929</v>
       </c>
@@ -33210,7 +33208,7 @@
         <v>0.61507892600000003</v>
       </c>
     </row>
-    <row r="980" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>1931</v>
       </c>
@@ -33236,7 +33234,7 @@
         <v>0.60523939100000002</v>
       </c>
     </row>
-    <row r="981" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>1933</v>
       </c>
@@ -33262,7 +33260,7 @@
         <v>0.70208764099999998</v>
       </c>
     </row>
-    <row r="982" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>1933</v>
       </c>
@@ -33288,7 +33286,7 @@
         <v>0.70208764099999998</v>
       </c>
     </row>
-    <row r="983" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>1935</v>
       </c>
@@ -33314,7 +33312,7 @@
         <v>0.82848662100000003</v>
       </c>
     </row>
-    <row r="984" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>1937</v>
       </c>
@@ -33340,7 +33338,7 @@
         <v>0.83914738899999997</v>
       </c>
     </row>
-    <row r="985" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>1939</v>
       </c>
@@ -33366,7 +33364,7 @@
         <v>0.87476760099999995</v>
       </c>
     </row>
-    <row r="986" spans="1:8" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
         <v>1941</v>
       </c>
@@ -33392,7 +33390,7 @@
         <v>0.802290261</v>
       </c>
     </row>
-    <row r="987" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>1943</v>
       </c>
@@ -33418,7 +33416,7 @@
         <v>0.57586508999999997</v>
       </c>
     </row>
-    <row r="988" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>1945</v>
       </c>
@@ -33444,7 +33442,7 @@
         <v>0.81108021699999999</v>
       </c>
     </row>
-    <row r="989" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>1947</v>
       </c>
@@ -33470,7 +33468,7 @@
         <v>0.79424905800000001</v>
       </c>
     </row>
-    <row r="990" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>1949</v>
       </c>
@@ -33496,7 +33494,7 @@
         <v>0.56174528599999995</v>
       </c>
     </row>
-    <row r="991" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>1951</v>
       </c>
@@ -33522,7 +33520,7 @@
         <v>0.91803747400000002</v>
       </c>
     </row>
-    <row r="992" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>1953</v>
       </c>
@@ -33548,7 +33546,7 @@
         <v>0.69072032000000005</v>
       </c>
     </row>
-    <row r="993" spans="1:8" ht="405" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
         <v>1955</v>
       </c>
@@ -33574,7 +33572,7 @@
         <v>0.896962225</v>
       </c>
     </row>
-    <row r="994" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
         <v>1957</v>
       </c>
@@ -33600,7 +33598,7 @@
         <v>0.53067392099999999</v>
       </c>
     </row>
-    <row r="995" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>1959</v>
       </c>
@@ -33626,7 +33624,7 @@
         <v>0.56557536100000005</v>
       </c>
     </row>
-    <row r="996" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>1961</v>
       </c>
@@ -33652,7 +33650,7 @@
         <v>0.73685240699999999</v>
       </c>
     </row>
-    <row r="997" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>1963</v>
       </c>
@@ -33678,7 +33676,7 @@
         <v>0.81305867399999998</v>
       </c>
     </row>
-    <row r="998" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
         <v>1965</v>
       </c>
@@ -33704,7 +33702,7 @@
         <v>0.82887715100000003</v>
       </c>
     </row>
-    <row r="999" spans="1:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
         <v>1967</v>
       </c>
@@ -33730,7 +33728,7 @@
         <v>0.53445392800000002</v>
       </c>
     </row>
-    <row r="1000" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>1969</v>
       </c>
@@ -33756,7 +33754,7 @@
         <v>0.83595681200000005</v>
       </c>
     </row>
-    <row r="1001" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>1971</v>
       </c>
@@ -33783,23 +33781,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1001" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="neutral"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="sadness"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="irony"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I1001" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
